--- a/assets/data/updates.xlsx
+++ b/assets/data/updates.xlsx
@@ -997,16 +997,13 @@
     <t>strong pressure would be exerted on the central government to remove unnecessary restrictions regarding land use in villages.</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Not Started</t>
+    <t>Partially Fulfilled</t>
+  </si>
+  <si>
+    <t>Fulfilled</t>
+  </si>
+  <si>
+    <t>Unfulfilled</t>
   </si>
   <si>
     <t>BRPL aims to bring the benefit of Rooftop Solar Power to Delhi. In its First Phase, the flagship Initiative BRPL Solar City is targeting Group Housing Societies in Dwarka Sub-city. Join us in our mission to Solarise Dwarka!
@@ -1686,6 +1683,9 @@
   </si>
   <si>
     <t>While the bank loans facilitation is still underway, the Delhi Government revised the auto fares for financial empowerment of drivers. The Delhi Government notified revised auto-rickshaw fares with an 18.75 per cent hike on existing rates. Under the revised rates, riders will have to pay a base fare of Rs 25 for 1.5 km against the existing rate of Rs 25 for initial 2 km of the ride. Rs 9.5 will be charged for every additional kilometre after the initial 1.5 km against the existing rate of Rs 8 km per kilometre.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t xml:space="preserve">The state government decided to curtail special powers of traffic police conferred on it several years ago. Under rule of 66/192 A, Delhi traffic police had power to seize vehicles in case of overcharging, refusal, driving without PSV (public service vehicle) badges, uniform, misbehaviour by drivers. </t>
@@ -4525,7 +4525,7 @@
         <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G2" t="s">
         <v>562</v>
@@ -4575,7 +4575,7 @@
         <v>327</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
         <v>563</v>
@@ -4619,10 +4619,10 @@
         <v>43108</v>
       </c>
       <c r="E4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
         <v>564</v>
@@ -4669,7 +4669,7 @@
         <v>327</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G5" t="s">
         <v>565</v>
@@ -4716,7 +4716,7 @@
         <v>327</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G6" t="s">
         <v>562</v>
@@ -4766,7 +4766,7 @@
         <v>327</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G7" t="s">
         <v>563</v>
@@ -4810,10 +4810,10 @@
         <v>43108</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G8" t="s">
         <v>564</v>
@@ -4860,7 +4860,7 @@
         <v>327</v>
       </c>
       <c r="F9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G9" t="s">
         <v>565</v>
@@ -4907,7 +4907,7 @@
         <v>327</v>
       </c>
       <c r="F10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" t="s">
         <v>566</v>
@@ -4957,7 +4957,7 @@
         <v>327</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G11" t="s">
         <v>567</v>
@@ -5007,10 +5007,10 @@
         <v>42578</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G12" t="s">
         <v>568</v>
@@ -5054,10 +5054,10 @@
         <v>43341</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G13" t="s">
         <v>569</v>
@@ -5101,10 +5101,10 @@
         <v>42965</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G14" t="s">
         <v>570</v>
@@ -5151,7 +5151,7 @@
         <v>327</v>
       </c>
       <c r="F15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" t="s">
         <v>566</v>
@@ -5201,7 +5201,7 @@
         <v>327</v>
       </c>
       <c r="F16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G16" t="s">
         <v>567</v>
@@ -5251,10 +5251,10 @@
         <v>42578</v>
       </c>
       <c r="E17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G17" t="s">
         <v>568</v>
@@ -5298,10 +5298,10 @@
         <v>43341</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G18" t="s">
         <v>569</v>
@@ -5345,10 +5345,10 @@
         <v>42965</v>
       </c>
       <c r="E19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G19" t="s">
         <v>570</v>
@@ -5392,10 +5392,10 @@
         <v>43839</v>
       </c>
       <c r="E20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" t="s">
         <v>571</v>
@@ -5445,10 +5445,10 @@
         <v>43929</v>
       </c>
       <c r="E21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G21" t="s">
         <v>572</v>
@@ -5498,10 +5498,10 @@
         <v>43839</v>
       </c>
       <c r="E22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" t="s">
         <v>573</v>
@@ -5545,10 +5545,10 @@
         <v>43839</v>
       </c>
       <c r="E23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G23" t="s">
         <v>571</v>
@@ -5598,10 +5598,10 @@
         <v>43929</v>
       </c>
       <c r="E24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G24" t="s">
         <v>572</v>
@@ -5651,10 +5651,10 @@
         <v>43839</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" t="s">
         <v>573</v>
@@ -5701,7 +5701,7 @@
         <v>327</v>
       </c>
       <c r="F26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
         <v>574</v>
@@ -5754,7 +5754,7 @@
         <v>327</v>
       </c>
       <c r="F27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G27" t="s">
         <v>575</v>
@@ -5801,10 +5801,10 @@
         <v>43098</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G28" t="s">
         <v>576</v>
@@ -5851,10 +5851,10 @@
         <v>43833</v>
       </c>
       <c r="E29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G29" t="s">
         <v>577</v>
@@ -5901,7 +5901,7 @@
         <v>327</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
         <v>574</v>
@@ -5954,7 +5954,7 @@
         <v>327</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G31" t="s">
         <v>575</v>
@@ -6001,10 +6001,10 @@
         <v>43098</v>
       </c>
       <c r="E32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G32" t="s">
         <v>576</v>
@@ -6051,10 +6051,10 @@
         <v>43833</v>
       </c>
       <c r="E33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
         <v>577</v>
@@ -6101,7 +6101,7 @@
         <v>327</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G34" t="s">
         <v>578</v>
@@ -6151,10 +6151,10 @@
         <v>43867</v>
       </c>
       <c r="E35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G35" t="s">
         <v>579</v>
@@ -6198,10 +6198,10 @@
         <v>43868</v>
       </c>
       <c r="E36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G36" t="s">
         <v>580</v>
@@ -6248,7 +6248,7 @@
         <v>327</v>
       </c>
       <c r="F37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G37" t="s">
         <v>578</v>
@@ -6298,10 +6298,10 @@
         <v>43867</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
         <v>579</v>
@@ -6345,10 +6345,10 @@
         <v>43868</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
         <v>580</v>
@@ -6392,10 +6392,10 @@
         <v>43682</v>
       </c>
       <c r="E40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
         <v>581</v>
@@ -6445,10 +6445,10 @@
         <v>43013</v>
       </c>
       <c r="E41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
         <v>582</v>
@@ -6495,10 +6495,10 @@
         <v>43682</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G42" t="s">
         <v>581</v>
@@ -6548,10 +6548,10 @@
         <v>43013</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G43" t="s">
         <v>582</v>
@@ -6601,7 +6601,7 @@
         <v>327</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G44" t="s">
         <v>583</v>
@@ -6651,10 +6651,10 @@
         <v>44024</v>
       </c>
       <c r="E45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
         <v>584</v>
@@ -6707,7 +6707,7 @@
         <v>327</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G46" t="s">
         <v>585</v>
@@ -6757,10 +6757,10 @@
         <v>43777</v>
       </c>
       <c r="E47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G47" t="s">
         <v>586</v>
@@ -6810,10 +6810,10 @@
         <v>43373</v>
       </c>
       <c r="E48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G48" t="s">
         <v>587</v>
@@ -6860,10 +6860,10 @@
         <v>43865</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G49" t="s">
         <v>588</v>
@@ -6910,7 +6910,7 @@
         <v>327</v>
       </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G50" t="s">
         <v>583</v>
@@ -6960,10 +6960,10 @@
         <v>44024</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G51" t="s">
         <v>584</v>
@@ -7016,7 +7016,7 @@
         <v>327</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G52" t="s">
         <v>585</v>
@@ -7066,10 +7066,10 @@
         <v>43777</v>
       </c>
       <c r="E53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G53" t="s">
         <v>586</v>
@@ -7119,10 +7119,10 @@
         <v>43373</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G54" t="s">
         <v>587</v>
@@ -7169,10 +7169,10 @@
         <v>43865</v>
       </c>
       <c r="E55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G55" t="s">
         <v>588</v>
@@ -7216,10 +7216,10 @@
         <v>43520</v>
       </c>
       <c r="E56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G56" t="s">
         <v>589</v>
@@ -7269,10 +7269,10 @@
         <v>43520</v>
       </c>
       <c r="E57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G57" t="s">
         <v>590</v>
@@ -7319,10 +7319,10 @@
         <v>43520</v>
       </c>
       <c r="E58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G58" t="s">
         <v>589</v>
@@ -7372,10 +7372,10 @@
         <v>43520</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G59" t="s">
         <v>590</v>
@@ -7422,10 +7422,10 @@
         <v>43975</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G60" t="s">
         <v>591</v>
@@ -7472,10 +7472,10 @@
         <v>44077</v>
       </c>
       <c r="E61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G61" t="s">
         <v>592</v>
@@ -7525,7 +7525,7 @@
         <v>327</v>
       </c>
       <c r="F62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G62" t="s">
         <v>593</v>
@@ -7572,10 +7572,10 @@
         <v>43244</v>
       </c>
       <c r="E63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G63" t="s">
         <v>594</v>
@@ -7619,10 +7619,10 @@
         <v>43975</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G64" t="s">
         <v>591</v>
@@ -7669,10 +7669,10 @@
         <v>44077</v>
       </c>
       <c r="E65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G65" t="s">
         <v>592</v>
@@ -7722,7 +7722,7 @@
         <v>327</v>
       </c>
       <c r="F66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G66" t="s">
         <v>593</v>
@@ -7769,10 +7769,10 @@
         <v>43244</v>
       </c>
       <c r="E67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G67" t="s">
         <v>594</v>
@@ -7816,10 +7816,10 @@
         <v>42458</v>
       </c>
       <c r="E68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G68" t="s">
         <v>595</v>
@@ -7869,10 +7869,10 @@
         <v>43522</v>
       </c>
       <c r="E69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G69" t="s">
         <v>596</v>
@@ -7916,10 +7916,10 @@
         <v>43522</v>
       </c>
       <c r="E70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G70" t="s">
         <v>597</v>
@@ -7963,10 +7963,10 @@
         <v>42458</v>
       </c>
       <c r="E71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G71" t="s">
         <v>595</v>
@@ -8016,10 +8016,10 @@
         <v>43522</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G72" t="s">
         <v>596</v>
@@ -8063,10 +8063,10 @@
         <v>43522</v>
       </c>
       <c r="E73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G73" t="s">
         <v>597</v>
@@ -8110,10 +8110,10 @@
         <v>42802</v>
       </c>
       <c r="E74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G74" t="s">
         <v>598</v>
@@ -8163,10 +8163,10 @@
         <v>43182</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G75" t="s">
         <v>599</v>
@@ -8216,10 +8216,10 @@
         <v>43522</v>
       </c>
       <c r="E76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F76" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G76" t="s">
         <v>600</v>
@@ -8269,10 +8269,10 @@
         <v>42802</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G77" t="s">
         <v>598</v>
@@ -8322,10 +8322,10 @@
         <v>43182</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G78" t="s">
         <v>599</v>
@@ -8375,10 +8375,10 @@
         <v>43522</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G79" t="s">
         <v>600</v>
@@ -8431,7 +8431,7 @@
         <v>327</v>
       </c>
       <c r="F80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G80" t="s">
         <v>601</v>
@@ -8478,7 +8478,7 @@
         <v>327</v>
       </c>
       <c r="F81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G81" t="s">
         <v>602</v>
@@ -8525,7 +8525,7 @@
         <v>327</v>
       </c>
       <c r="F82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G82" t="s">
         <v>603</v>
@@ -8572,7 +8572,7 @@
         <v>327</v>
       </c>
       <c r="F83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G83" t="s">
         <v>601</v>
@@ -8619,7 +8619,7 @@
         <v>327</v>
       </c>
       <c r="F84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G84" t="s">
         <v>602</v>
@@ -8666,7 +8666,7 @@
         <v>327</v>
       </c>
       <c r="F85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G85" t="s">
         <v>603</v>
@@ -8710,10 +8710,10 @@
         <v>42401</v>
       </c>
       <c r="E86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G86" t="s">
         <v>604</v>
@@ -8757,10 +8757,10 @@
         <v>42401</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G87" t="s">
         <v>604</v>
@@ -8804,10 +8804,10 @@
         <v>43013</v>
       </c>
       <c r="E88" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F88" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G88" t="s">
         <v>582</v>
@@ -8854,10 +8854,10 @@
         <v>43013</v>
       </c>
       <c r="E89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G89" t="s">
         <v>582</v>
@@ -8904,10 +8904,10 @@
         <v>43013</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G90" t="s">
         <v>605</v>
@@ -8951,10 +8951,10 @@
         <v>43013</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G91" t="s">
         <v>605</v>
@@ -8998,10 +8998,10 @@
         <v>43013</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G92" t="s">
         <v>606</v>
@@ -9045,10 +9045,10 @@
         <v>43013</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G93" t="s">
         <v>606</v>
@@ -9092,10 +9092,10 @@
         <v>43013</v>
       </c>
       <c r="E94" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G94" t="s">
         <v>607</v>
@@ -9139,10 +9139,10 @@
         <v>43013</v>
       </c>
       <c r="E95" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G95" t="s">
         <v>607</v>
@@ -9186,10 +9186,10 @@
         <v>42210</v>
       </c>
       <c r="E96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F96" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G96" t="s">
         <v>608</v>
@@ -9233,10 +9233,10 @@
         <v>42533</v>
       </c>
       <c r="E97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G97" t="s">
         <v>609</v>
@@ -9280,10 +9280,10 @@
         <v>43700</v>
       </c>
       <c r="E98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F98" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G98" t="s">
         <v>610</v>
@@ -9327,10 +9327,10 @@
         <v>42210</v>
       </c>
       <c r="E99" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G99" t="s">
         <v>608</v>
@@ -9374,10 +9374,10 @@
         <v>42533</v>
       </c>
       <c r="E100" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G100" t="s">
         <v>609</v>
@@ -9421,10 +9421,10 @@
         <v>43700</v>
       </c>
       <c r="E101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G101" t="s">
         <v>610</v>
@@ -9468,10 +9468,10 @@
         <v>42326</v>
       </c>
       <c r="E102" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G102" t="s">
         <v>611</v>
@@ -9515,10 +9515,10 @@
         <v>42326</v>
       </c>
       <c r="E103" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G103" t="s">
         <v>611</v>
@@ -9562,10 +9562,10 @@
         <v>42927</v>
       </c>
       <c r="E104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G104" t="s">
         <v>612</v>
@@ -9609,10 +9609,10 @@
         <v>42927</v>
       </c>
       <c r="E105" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F105" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G105" t="s">
         <v>612</v>
@@ -9656,10 +9656,10 @@
         <v>42927</v>
       </c>
       <c r="E106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G106" t="s">
         <v>613</v>
@@ -9703,10 +9703,10 @@
         <v>42927</v>
       </c>
       <c r="E107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F107" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G107" t="s">
         <v>613</v>
@@ -9750,10 +9750,10 @@
         <v>43382</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F108" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G108" t="s">
         <v>614</v>
@@ -9797,10 +9797,10 @@
         <v>43382</v>
       </c>
       <c r="E109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F109" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G109" t="s">
         <v>614</v>
@@ -9844,10 +9844,10 @@
         <v>43864</v>
       </c>
       <c r="E110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F110" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G110" t="s">
         <v>615</v>
@@ -9891,10 +9891,10 @@
         <v>43864</v>
       </c>
       <c r="E111" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F111" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G111" t="s">
         <v>615</v>
@@ -9941,7 +9941,7 @@
         <v>327</v>
       </c>
       <c r="F112" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G112" t="s">
         <v>616</v>
@@ -9988,7 +9988,7 @@
         <v>327</v>
       </c>
       <c r="F113" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G113" t="s">
         <v>616</v>
@@ -10035,7 +10035,7 @@
         <v>327</v>
       </c>
       <c r="F114" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G114" t="s">
         <v>617</v>
@@ -10082,7 +10082,7 @@
         <v>327</v>
       </c>
       <c r="F115" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G115" t="s">
         <v>617</v>
@@ -10129,7 +10129,7 @@
         <v>327</v>
       </c>
       <c r="F116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G116" t="s">
         <v>618</v>
@@ -10173,10 +10173,10 @@
         <v>43772</v>
       </c>
       <c r="E117" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G117" t="s">
         <v>619</v>
@@ -10223,7 +10223,7 @@
         <v>327</v>
       </c>
       <c r="F118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G118" t="s">
         <v>620</v>
@@ -10270,7 +10270,7 @@
         <v>327</v>
       </c>
       <c r="F119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G119" t="s">
         <v>618</v>
@@ -10314,10 +10314,10 @@
         <v>43772</v>
       </c>
       <c r="E120" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F120" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G120" t="s">
         <v>619</v>
@@ -10364,7 +10364,7 @@
         <v>327</v>
       </c>
       <c r="F121" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G121" t="s">
         <v>620</v>
@@ -10411,7 +10411,7 @@
         <v>327</v>
       </c>
       <c r="F122" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G122" t="s">
         <v>621</v>
@@ -10458,7 +10458,7 @@
         <v>327</v>
       </c>
       <c r="F123" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G123" t="s">
         <v>621</v>
@@ -10505,7 +10505,7 @@
         <v>327</v>
       </c>
       <c r="F124" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G124" t="s">
         <v>622</v>
@@ -10552,7 +10552,7 @@
         <v>327</v>
       </c>
       <c r="F125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G125" t="s">
         <v>622</v>
@@ -10599,7 +10599,7 @@
         <v>327</v>
       </c>
       <c r="F126" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G126" t="s">
         <v>623</v>
@@ -10646,7 +10646,7 @@
         <v>327</v>
       </c>
       <c r="F127" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G127" t="s">
         <v>623</v>
@@ -10690,10 +10690,10 @@
         <v>43867</v>
       </c>
       <c r="E128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G128" t="s">
         <v>624</v>
@@ -10737,10 +10737,10 @@
         <v>43867</v>
       </c>
       <c r="E129" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F129" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G129" t="s">
         <v>624</v>
@@ -10787,7 +10787,7 @@
         <v>327</v>
       </c>
       <c r="F130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G130" t="s">
         <v>625</v>
@@ -10837,7 +10837,7 @@
         <v>327</v>
       </c>
       <c r="F131" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G131" t="s">
         <v>625</v>
@@ -10884,7 +10884,7 @@
         <v>327</v>
       </c>
       <c r="F132" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G132" t="s">
         <v>625</v>
@@ -10934,7 +10934,7 @@
         <v>327</v>
       </c>
       <c r="F133" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G133" t="s">
         <v>625</v>
@@ -10978,10 +10978,10 @@
         <v>43867</v>
       </c>
       <c r="E134" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F134" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G134" t="s">
         <v>626</v>
@@ -11025,10 +11025,10 @@
         <v>43867</v>
       </c>
       <c r="E135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F135" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G135" t="s">
         <v>626</v>
@@ -11072,10 +11072,10 @@
         <v>43867</v>
       </c>
       <c r="E136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F136" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G136" t="s">
         <v>627</v>
@@ -11122,7 +11122,7 @@
         <v>327</v>
       </c>
       <c r="F137" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G137" t="s">
         <v>628</v>
@@ -11166,10 +11166,10 @@
         <v>43733</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F138" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G138" t="s">
         <v>629</v>
@@ -11213,10 +11213,10 @@
         <v>43867</v>
       </c>
       <c r="E139" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F139" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G139" t="s">
         <v>627</v>
@@ -11263,7 +11263,7 @@
         <v>327</v>
       </c>
       <c r="F140" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G140" t="s">
         <v>628</v>
@@ -11307,10 +11307,10 @@
         <v>43733</v>
       </c>
       <c r="E141" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F141" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G141" t="s">
         <v>629</v>
@@ -11357,7 +11357,7 @@
         <v>327</v>
       </c>
       <c r="F142" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G142" t="s">
         <v>630</v>
@@ -11404,7 +11404,7 @@
         <v>327</v>
       </c>
       <c r="F143" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G143" t="s">
         <v>630</v>
@@ -11451,7 +11451,7 @@
         <v>327</v>
       </c>
       <c r="F144" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G144" t="s">
         <v>631</v>
@@ -11498,7 +11498,7 @@
         <v>327</v>
       </c>
       <c r="F145" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G145" t="s">
         <v>631</v>
@@ -11542,10 +11542,10 @@
         <v>43868</v>
       </c>
       <c r="E146" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F146" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G146" t="s">
         <v>632</v>
@@ -11589,10 +11589,10 @@
         <v>43868</v>
       </c>
       <c r="E147" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F147" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G147" t="s">
         <v>632</v>
@@ -11636,10 +11636,10 @@
         <v>43867</v>
       </c>
       <c r="E148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F148" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G148" t="s">
         <v>633</v>
@@ -11680,10 +11680,10 @@
         <v>43867</v>
       </c>
       <c r="E149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F149" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G149" t="s">
         <v>633</v>
@@ -11727,7 +11727,7 @@
         <v>327</v>
       </c>
       <c r="F150" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G150" t="s">
         <v>634</v>
@@ -11774,7 +11774,7 @@
         <v>327</v>
       </c>
       <c r="F151" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G151" t="s">
         <v>635</v>
@@ -11821,7 +11821,7 @@
         <v>327</v>
       </c>
       <c r="F152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G152" t="s">
         <v>634</v>
@@ -11868,7 +11868,7 @@
         <v>327</v>
       </c>
       <c r="F153" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G153" t="s">
         <v>635</v>
@@ -11912,10 +11912,10 @@
         <v>43868</v>
       </c>
       <c r="E154" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G154" t="s">
         <v>636</v>
@@ -11962,7 +11962,7 @@
         <v>327</v>
       </c>
       <c r="F155" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G155" t="s">
         <v>637</v>
@@ -12006,10 +12006,10 @@
         <v>43868</v>
       </c>
       <c r="E156" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F156" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G156" t="s">
         <v>636</v>
@@ -12056,7 +12056,7 @@
         <v>327</v>
       </c>
       <c r="F157" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G157" t="s">
         <v>637</v>
@@ -12103,7 +12103,7 @@
         <v>327</v>
       </c>
       <c r="F158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G158" t="s">
         <v>638</v>
@@ -12150,7 +12150,7 @@
         <v>327</v>
       </c>
       <c r="F159" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G159" t="s">
         <v>638</v>
@@ -12197,7 +12197,7 @@
         <v>327</v>
       </c>
       <c r="F160" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G160" t="s">
         <v>639</v>
@@ -12244,7 +12244,7 @@
         <v>327</v>
       </c>
       <c r="F161" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G161" t="s">
         <v>639</v>
@@ -12288,10 +12288,10 @@
         <v>43253</v>
       </c>
       <c r="E162" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F162" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G162" t="s">
         <v>640</v>
@@ -12338,7 +12338,7 @@
         <v>327</v>
       </c>
       <c r="F163" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G163" t="s">
         <v>641</v>
@@ -12385,10 +12385,10 @@
         <v>43253</v>
       </c>
       <c r="E164" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F164" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G164" t="s">
         <v>642</v>
@@ -12432,10 +12432,10 @@
         <v>43253</v>
       </c>
       <c r="E165" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G165" t="s">
         <v>640</v>
@@ -12482,7 +12482,7 @@
         <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G166" t="s">
         <v>641</v>
@@ -12529,10 +12529,10 @@
         <v>43253</v>
       </c>
       <c r="E167" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G167" t="s">
         <v>642</v>
@@ -12576,10 +12576,10 @@
         <v>43731</v>
       </c>
       <c r="E168" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G168" t="s">
         <v>643</v>
@@ -12626,7 +12626,7 @@
         <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G169" t="s">
         <v>644</v>
@@ -12670,10 +12670,10 @@
         <v>43731</v>
       </c>
       <c r="E170" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G170" t="s">
         <v>645</v>
@@ -12717,10 +12717,10 @@
         <v>43731</v>
       </c>
       <c r="E171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G171" t="s">
         <v>643</v>
@@ -12767,7 +12767,7 @@
         <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G172" t="s">
         <v>644</v>
@@ -12811,10 +12811,10 @@
         <v>43731</v>
       </c>
       <c r="E173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G173" t="s">
         <v>645</v>
@@ -12858,10 +12858,10 @@
         <v>43643</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G174" t="s">
         <v>646</v>
@@ -12905,10 +12905,10 @@
         <v>43643</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G175" t="s">
         <v>646</v>
@@ -12952,10 +12952,10 @@
         <v>43766</v>
       </c>
       <c r="E176" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F176" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G176" t="s">
         <v>647</v>
@@ -12999,10 +12999,10 @@
         <v>43766</v>
       </c>
       <c r="E177" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G177" t="s">
         <v>647</v>
@@ -13046,10 +13046,10 @@
         <v>43549</v>
       </c>
       <c r="E178" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F178" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G178" t="s">
         <v>648</v>
@@ -13093,10 +13093,10 @@
         <v>43549</v>
       </c>
       <c r="E179" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F179" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G179" t="s">
         <v>648</v>
@@ -13143,7 +13143,7 @@
         <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G180" t="s">
         <v>649</v>
@@ -13193,7 +13193,7 @@
         <v>327</v>
       </c>
       <c r="F181" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G181" t="s">
         <v>649</v>
@@ -13240,10 +13240,10 @@
         <v>42139</v>
       </c>
       <c r="E182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F182" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G182" t="s">
         <v>650</v>
@@ -13287,10 +13287,10 @@
         <v>42139</v>
       </c>
       <c r="E183" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F183" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G183" t="s">
         <v>650</v>
@@ -13337,7 +13337,7 @@
         <v>327</v>
       </c>
       <c r="F184" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G184" t="s">
         <v>651</v>
@@ -13387,7 +13387,7 @@
         <v>327</v>
       </c>
       <c r="F185" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G185" t="s">
         <v>651</v>
@@ -13437,7 +13437,7 @@
         <v>327</v>
       </c>
       <c r="F186" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G186" t="s">
         <v>652</v>
@@ -13487,7 +13487,7 @@
         <v>327</v>
       </c>
       <c r="F187" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G187" t="s">
         <v>653</v>
@@ -13534,7 +13534,7 @@
         <v>327</v>
       </c>
       <c r="F188" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G188" t="s">
         <v>654</v>
@@ -13578,10 +13578,10 @@
         <v>43813</v>
       </c>
       <c r="E189" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F189" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G189" t="s">
         <v>655</v>
@@ -13625,10 +13625,10 @@
         <v>43353</v>
       </c>
       <c r="E190" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F190" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G190" t="s">
         <v>656</v>
@@ -13675,7 +13675,7 @@
         <v>327</v>
       </c>
       <c r="F191" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G191" t="s">
         <v>652</v>
@@ -13725,7 +13725,7 @@
         <v>327</v>
       </c>
       <c r="F192" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G192" t="s">
         <v>653</v>
@@ -13772,7 +13772,7 @@
         <v>327</v>
       </c>
       <c r="F193" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G193" t="s">
         <v>654</v>
@@ -13816,10 +13816,10 @@
         <v>43813</v>
       </c>
       <c r="E194" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F194" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G194" t="s">
         <v>655</v>
@@ -13863,10 +13863,10 @@
         <v>43353</v>
       </c>
       <c r="E195" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F195" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G195" t="s">
         <v>656</v>
@@ -13910,10 +13910,10 @@
         <v>43648</v>
       </c>
       <c r="E196" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F196" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G196" t="s">
         <v>657</v>
@@ -13957,10 +13957,10 @@
         <v>43649</v>
       </c>
       <c r="E197" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F197" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G197" t="s">
         <v>658</v>
@@ -14004,10 +14004,10 @@
         <v>43648</v>
       </c>
       <c r="E198" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F198" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G198" t="s">
         <v>657</v>
@@ -14051,10 +14051,10 @@
         <v>43649</v>
       </c>
       <c r="E199" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F199" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G199" t="s">
         <v>658</v>
@@ -14101,7 +14101,7 @@
         <v>327</v>
       </c>
       <c r="F200" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G200" t="s">
         <v>659</v>
@@ -14148,7 +14148,7 @@
         <v>327</v>
       </c>
       <c r="F201" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G201" t="s">
         <v>659</v>
@@ -14192,10 +14192,10 @@
         <v>42940</v>
       </c>
       <c r="E202" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F202" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G202" t="s">
         <v>660</v>
@@ -14242,7 +14242,7 @@
         <v>327</v>
       </c>
       <c r="F203" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G203" t="s">
         <v>661</v>
@@ -14286,10 +14286,10 @@
         <v>42940</v>
       </c>
       <c r="E204" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F204" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G204" t="s">
         <v>660</v>
@@ -14336,7 +14336,7 @@
         <v>327</v>
       </c>
       <c r="F205" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G205" t="s">
         <v>661</v>
@@ -14383,7 +14383,7 @@
         <v>327</v>
       </c>
       <c r="F206" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G206" t="s">
         <v>662</v>
@@ -14430,7 +14430,7 @@
         <v>327</v>
       </c>
       <c r="F207" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G207" t="s">
         <v>662</v>
@@ -14477,7 +14477,7 @@
         <v>327</v>
       </c>
       <c r="F208" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G208" t="s">
         <v>663</v>
@@ -14524,10 +14524,10 @@
         <v>43796</v>
       </c>
       <c r="E209" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F209" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G209" t="s">
         <v>664</v>
@@ -14574,10 +14574,10 @@
         <v>43781</v>
       </c>
       <c r="E210" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F210" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G210" t="s">
         <v>665</v>
@@ -14624,7 +14624,7 @@
         <v>327</v>
       </c>
       <c r="F211" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G211" t="s">
         <v>663</v>
@@ -14671,10 +14671,10 @@
         <v>43796</v>
       </c>
       <c r="E212" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F212" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G212" t="s">
         <v>664</v>
@@ -14721,10 +14721,10 @@
         <v>43781</v>
       </c>
       <c r="E213" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F213" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G213" t="s">
         <v>665</v>
@@ -14771,7 +14771,7 @@
         <v>327</v>
       </c>
       <c r="F214" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G214" t="s">
         <v>666</v>
@@ -14818,7 +14818,7 @@
         <v>327</v>
       </c>
       <c r="F215" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G215" t="s">
         <v>666</v>
@@ -14862,10 +14862,10 @@
         <v>43125</v>
       </c>
       <c r="E216" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F216" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G216" t="s">
         <v>667</v>
@@ -14912,10 +14912,10 @@
         <v>43125</v>
       </c>
       <c r="E217" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F217" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G217" t="s">
         <v>667</v>
@@ -14962,10 +14962,10 @@
         <v>42459</v>
       </c>
       <c r="E218" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F218" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G218" t="s">
         <v>668</v>
@@ -15009,10 +15009,10 @@
         <v>42459</v>
       </c>
       <c r="E219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G219" t="s">
         <v>668</v>
@@ -15056,10 +15056,10 @@
         <v>43830</v>
       </c>
       <c r="E220" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F220" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G220" t="s">
         <v>669</v>
@@ -15106,10 +15106,10 @@
         <v>43830</v>
       </c>
       <c r="E221" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F221" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G221" t="s">
         <v>669</v>
@@ -15159,7 +15159,7 @@
         <v>327</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G222" t="s">
         <v>670</v>
@@ -15206,7 +15206,7 @@
         <v>327</v>
       </c>
       <c r="F223" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G223" t="s">
         <v>671</v>
@@ -15253,7 +15253,7 @@
         <v>327</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G224" t="s">
         <v>672</v>
@@ -15300,7 +15300,7 @@
         <v>327</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G225" t="s">
         <v>670</v>
@@ -15347,7 +15347,7 @@
         <v>327</v>
       </c>
       <c r="F226" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G226" t="s">
         <v>671</v>
@@ -15394,7 +15394,7 @@
         <v>327</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G227" t="s">
         <v>672</v>
@@ -15438,10 +15438,10 @@
         <v>43682</v>
       </c>
       <c r="E228" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F228" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G228" t="s">
         <v>673</v>
@@ -15485,10 +15485,10 @@
         <v>43682</v>
       </c>
       <c r="E229" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F229" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G229" t="s">
         <v>673</v>
@@ -15532,10 +15532,10 @@
         <v>43615</v>
       </c>
       <c r="E230" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G230" t="s">
         <v>674</v>
@@ -15579,10 +15579,10 @@
         <v>43615</v>
       </c>
       <c r="E231" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G231" t="s">
         <v>674</v>
@@ -15629,7 +15629,7 @@
         <v>327</v>
       </c>
       <c r="F232" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G232" t="s">
         <v>675</v>
@@ -15676,7 +15676,7 @@
         <v>327</v>
       </c>
       <c r="F233" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G233" t="s">
         <v>675</v>
@@ -15723,7 +15723,7 @@
         <v>327</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G234" t="s">
         <v>676</v>
@@ -15770,7 +15770,7 @@
         <v>327</v>
       </c>
       <c r="F235" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G235" t="s">
         <v>677</v>
@@ -15814,10 +15814,10 @@
         <v>43744</v>
       </c>
       <c r="E236" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G236" t="s">
         <v>678</v>
@@ -15864,7 +15864,7 @@
         <v>327</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G237" t="s">
         <v>676</v>
@@ -15911,7 +15911,7 @@
         <v>327</v>
       </c>
       <c r="F238" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G238" t="s">
         <v>677</v>
@@ -15955,10 +15955,10 @@
         <v>43744</v>
       </c>
       <c r="E239" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G239" t="s">
         <v>678</v>
@@ -16002,10 +16002,10 @@
         <v>43117</v>
       </c>
       <c r="E240" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F240" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G240" t="s">
         <v>679</v>
@@ -16049,10 +16049,10 @@
         <v>43117</v>
       </c>
       <c r="E241" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G241" t="s">
         <v>679</v>
@@ -16099,7 +16099,7 @@
         <v>327</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G242" t="s">
         <v>680</v>
@@ -16146,7 +16146,7 @@
         <v>327</v>
       </c>
       <c r="F243" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G243" t="s">
         <v>680</v>
@@ -16193,7 +16193,7 @@
         <v>327</v>
       </c>
       <c r="F244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G244" t="s">
         <v>681</v>
@@ -16243,7 +16243,7 @@
         <v>327</v>
       </c>
       <c r="F245" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G245" t="s">
         <v>681</v>
@@ -16290,10 +16290,10 @@
         <v>43868</v>
       </c>
       <c r="E246" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F246" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G246" t="s">
         <v>682</v>
@@ -16337,10 +16337,10 @@
         <v>43868</v>
       </c>
       <c r="E247" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F247" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G247" t="s">
         <v>682</v>
@@ -16387,7 +16387,7 @@
         <v>327</v>
       </c>
       <c r="F248" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G248" t="s">
         <v>683</v>
@@ -16434,7 +16434,7 @@
         <v>327</v>
       </c>
       <c r="F249" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G249" t="s">
         <v>683</v>
@@ -16481,7 +16481,7 @@
         <v>327</v>
       </c>
       <c r="F250" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G250" t="s">
         <v>684</v>
@@ -16528,7 +16528,7 @@
         <v>327</v>
       </c>
       <c r="F251" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G251" t="s">
         <v>684</v>
@@ -16572,10 +16572,10 @@
         <v>43773</v>
       </c>
       <c r="E252" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F252" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G252" t="s">
         <v>685</v>
@@ -16619,10 +16619,10 @@
         <v>42412</v>
       </c>
       <c r="E253" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F253" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G253" t="s">
         <v>686</v>
@@ -16666,10 +16666,10 @@
         <v>43769</v>
       </c>
       <c r="E254" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F254" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G254" t="s">
         <v>687</v>
@@ -16713,10 +16713,10 @@
         <v>43773</v>
       </c>
       <c r="E255" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F255" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G255" t="s">
         <v>685</v>
@@ -16760,10 +16760,10 @@
         <v>42412</v>
       </c>
       <c r="E256" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F256" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G256" t="s">
         <v>686</v>
@@ -16807,10 +16807,10 @@
         <v>43769</v>
       </c>
       <c r="E257" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F257" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G257" t="s">
         <v>687</v>
@@ -16854,10 +16854,10 @@
         <v>43580</v>
       </c>
       <c r="E258" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F258" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G258" t="s">
         <v>688</v>
@@ -16901,10 +16901,10 @@
         <v>43580</v>
       </c>
       <c r="E259" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F259" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G259" t="s">
         <v>688</v>
@@ -16951,7 +16951,7 @@
         <v>327</v>
       </c>
       <c r="F260" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G260" t="s">
         <v>689</v>
@@ -17001,7 +17001,7 @@
         <v>327</v>
       </c>
       <c r="F261" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G261" t="s">
         <v>689</v>
@@ -17051,7 +17051,7 @@
         <v>327</v>
       </c>
       <c r="F262" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G262" t="s">
         <v>690</v>
@@ -17098,7 +17098,7 @@
         <v>327</v>
       </c>
       <c r="F263" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G263" t="s">
         <v>690</v>
@@ -17145,7 +17145,7 @@
         <v>327</v>
       </c>
       <c r="F264" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G264" t="s">
         <v>691</v>
@@ -17195,7 +17195,7 @@
         <v>327</v>
       </c>
       <c r="F265" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G265" t="s">
         <v>691</v>
@@ -17242,10 +17242,10 @@
         <v>43868</v>
       </c>
       <c r="E266" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F266" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G266" t="s">
         <v>692</v>
@@ -17289,10 +17289,10 @@
         <v>43868</v>
       </c>
       <c r="E267" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F267" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G267" t="s">
         <v>692</v>
@@ -17336,10 +17336,10 @@
         <v>43057</v>
       </c>
       <c r="E268" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F268" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G268" t="s">
         <v>693</v>
@@ -17383,10 +17383,10 @@
         <v>43057</v>
       </c>
       <c r="E269" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F269" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G269" t="s">
         <v>693</v>
@@ -17433,7 +17433,7 @@
         <v>327</v>
       </c>
       <c r="F270" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G270" t="s">
         <v>694</v>
@@ -17480,7 +17480,7 @@
         <v>327</v>
       </c>
       <c r="F271" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G271" t="s">
         <v>694</v>
@@ -17524,10 +17524,10 @@
         <v>43868</v>
       </c>
       <c r="E272" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F272" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G272" t="s">
         <v>695</v>
@@ -17571,10 +17571,10 @@
         <v>43868</v>
       </c>
       <c r="E273" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F273" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G273" t="s">
         <v>695</v>
@@ -17621,7 +17621,7 @@
         <v>327</v>
       </c>
       <c r="F274" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G274" t="s">
         <v>696</v>
@@ -17668,7 +17668,7 @@
         <v>327</v>
       </c>
       <c r="F275" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G275" t="s">
         <v>696</v>
@@ -17715,7 +17715,7 @@
         <v>327</v>
       </c>
       <c r="F276" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G276" t="s">
         <v>697</v>
@@ -17762,7 +17762,7 @@
         <v>327</v>
       </c>
       <c r="F277" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G277" t="s">
         <v>697</v>
@@ -17809,7 +17809,7 @@
         <v>327</v>
       </c>
       <c r="F278" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G278" t="s">
         <v>698</v>
@@ -17856,7 +17856,7 @@
         <v>327</v>
       </c>
       <c r="F279" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G279" t="s">
         <v>698</v>
@@ -17900,10 +17900,10 @@
         <v>43868</v>
       </c>
       <c r="E280" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F280" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G280" t="s">
         <v>699</v>
@@ -17947,10 +17947,10 @@
         <v>43868</v>
       </c>
       <c r="E281" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F281" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G281" t="s">
         <v>699</v>
@@ -17994,10 +17994,10 @@
         <v>43868</v>
       </c>
       <c r="E282" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F282" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G282" t="s">
         <v>700</v>
@@ -18041,10 +18041,10 @@
         <v>43868</v>
       </c>
       <c r="E283" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F283" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G283" t="s">
         <v>700</v>
@@ -18091,7 +18091,7 @@
         <v>327</v>
       </c>
       <c r="F284" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G284" t="s">
         <v>701</v>
@@ -18138,7 +18138,7 @@
         <v>327</v>
       </c>
       <c r="F285" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G285" t="s">
         <v>701</v>
@@ -18182,10 +18182,10 @@
         <v>43868</v>
       </c>
       <c r="E286" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F286" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G286" t="s">
         <v>702</v>
@@ -18229,10 +18229,10 @@
         <v>43868</v>
       </c>
       <c r="E287" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F287" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G287" t="s">
         <v>702</v>
@@ -18279,7 +18279,7 @@
         <v>327</v>
       </c>
       <c r="F288" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G288" t="s">
         <v>703</v>
@@ -18326,7 +18326,7 @@
         <v>327</v>
       </c>
       <c r="F289" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G289" t="s">
         <v>703</v>
@@ -18370,10 +18370,10 @@
         <v>43868</v>
       </c>
       <c r="E290" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F290" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G290" t="s">
         <v>704</v>
@@ -18417,10 +18417,10 @@
         <v>43868</v>
       </c>
       <c r="E291" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F291" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G291" t="s">
         <v>704</v>
@@ -18464,10 +18464,10 @@
         <v>42052</v>
       </c>
       <c r="E292" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F292" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G292" t="s">
         <v>705</v>
@@ -18511,10 +18511,10 @@
         <v>43360</v>
       </c>
       <c r="E293" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F293" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G293" t="s">
         <v>706</v>
@@ -18558,10 +18558,10 @@
         <v>43828</v>
       </c>
       <c r="E294" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F294" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G294" t="s">
         <v>707</v>
@@ -18605,10 +18605,10 @@
         <v>43112</v>
       </c>
       <c r="E295" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F295" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G295" t="s">
         <v>708</v>
@@ -18655,7 +18655,7 @@
         <v>327</v>
       </c>
       <c r="F296" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G296" t="s">
         <v>709</v>
@@ -18702,7 +18702,7 @@
         <v>327</v>
       </c>
       <c r="F297" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G297" t="s">
         <v>710</v>
@@ -18746,10 +18746,10 @@
         <v>42052</v>
       </c>
       <c r="E298" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F298" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G298" t="s">
         <v>705</v>
@@ -18793,10 +18793,10 @@
         <v>43360</v>
       </c>
       <c r="E299" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F299" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G299" t="s">
         <v>706</v>
@@ -18840,10 +18840,10 @@
         <v>43828</v>
       </c>
       <c r="E300" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F300" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G300" t="s">
         <v>707</v>
@@ -18887,10 +18887,10 @@
         <v>43112</v>
       </c>
       <c r="E301" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F301" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G301" t="s">
         <v>708</v>
@@ -18937,7 +18937,7 @@
         <v>327</v>
       </c>
       <c r="F302" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G302" t="s">
         <v>709</v>
@@ -18984,7 +18984,7 @@
         <v>327</v>
       </c>
       <c r="F303" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G303" t="s">
         <v>710</v>
@@ -19031,7 +19031,7 @@
         <v>327</v>
       </c>
       <c r="F304" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G304" t="s">
         <v>711</v>
@@ -19078,7 +19078,7 @@
         <v>327</v>
       </c>
       <c r="F305" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G305" t="s">
         <v>712</v>
@@ -19125,7 +19125,7 @@
         <v>327</v>
       </c>
       <c r="F306" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G306" t="s">
         <v>711</v>
@@ -19172,7 +19172,7 @@
         <v>327</v>
       </c>
       <c r="F307" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G307" t="s">
         <v>712</v>
@@ -19216,10 +19216,10 @@
         <v>43649</v>
       </c>
       <c r="E308" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F308" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G308" t="s">
         <v>713</v>
@@ -19263,10 +19263,10 @@
         <v>43690</v>
       </c>
       <c r="E309" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F309" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G309" t="s">
         <v>714</v>
@@ -19310,10 +19310,10 @@
         <v>43649</v>
       </c>
       <c r="E310" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F310" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G310" t="s">
         <v>713</v>
@@ -19357,10 +19357,10 @@
         <v>43690</v>
       </c>
       <c r="E311" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F311" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G311" t="s">
         <v>714</v>
@@ -19404,10 +19404,10 @@
         <v>42925</v>
       </c>
       <c r="E312" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F312" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G312" t="s">
         <v>715</v>
@@ -19451,10 +19451,10 @@
         <v>42925</v>
       </c>
       <c r="E313" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F313" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G313" t="s">
         <v>715</v>
@@ -19498,10 +19498,10 @@
         <v>41808</v>
       </c>
       <c r="E314" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F314" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G314" t="s">
         <v>716</v>
@@ -19545,10 +19545,10 @@
         <v>41808</v>
       </c>
       <c r="E315" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F315" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G315" t="s">
         <v>716</v>
@@ -19592,10 +19592,10 @@
         <v>41898</v>
       </c>
       <c r="E316" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F316" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G316" t="s">
         <v>717</v>
@@ -19639,10 +19639,10 @@
         <v>41898</v>
       </c>
       <c r="E317" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F317" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G317" t="s">
         <v>717</v>
@@ -19686,10 +19686,10 @@
         <v>43805</v>
       </c>
       <c r="E318" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F318" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G318" t="s">
         <v>718</v>
@@ -19733,10 +19733,10 @@
         <v>43805</v>
       </c>
       <c r="E319" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F319" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G319" t="s">
         <v>718</v>
@@ -19783,7 +19783,7 @@
         <v>327</v>
       </c>
       <c r="F320" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G320" t="s">
         <v>719</v>
@@ -19830,7 +19830,7 @@
         <v>327</v>
       </c>
       <c r="F321" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G321" t="s">
         <v>719</v>
@@ -19874,13 +19874,13 @@
         <v>43874</v>
       </c>
       <c r="E322" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F322" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="G322" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="J322" t="s">
         <v>1039</v>
@@ -19918,13 +19918,13 @@
         <v>43874</v>
       </c>
       <c r="E323" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F323" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="G323" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="J323" t="s">
         <v>1039</v>
@@ -19962,7 +19962,7 @@
         <v>42103</v>
       </c>
       <c r="E324" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F324" t="s">
         <v>490</v>
@@ -20009,7 +20009,7 @@
         <v>42103</v>
       </c>
       <c r="E325" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F325" t="s">
         <v>490</v>
@@ -20056,13 +20056,13 @@
         <v>43874</v>
       </c>
       <c r="E326" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F326" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="G326" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="J326" t="s">
         <v>1039</v>
@@ -20100,13 +20100,13 @@
         <v>43874</v>
       </c>
       <c r="E327" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F327" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="G327" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="J327" t="s">
         <v>1039</v>
@@ -20332,7 +20332,7 @@
         <v>43290</v>
       </c>
       <c r="E332" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F332" t="s">
         <v>493</v>
@@ -20379,7 +20379,7 @@
         <v>43290</v>
       </c>
       <c r="E333" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F333" t="s">
         <v>493</v>
@@ -20611,7 +20611,7 @@
         <v>247</v>
       </c>
       <c r="E338" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J338" t="s">
         <v>1046</v>
@@ -20646,7 +20646,7 @@
         <v>247</v>
       </c>
       <c r="E339" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J339" t="s">
         <v>1046</v>
@@ -20684,7 +20684,7 @@
         <v>40182</v>
       </c>
       <c r="E340" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F340" t="s">
         <v>496</v>
@@ -20731,7 +20731,7 @@
         <v>40182</v>
       </c>
       <c r="E341" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F341" t="s">
         <v>496</v>
@@ -20872,7 +20872,7 @@
         <v>42677</v>
       </c>
       <c r="E344" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F344" t="s">
         <v>498</v>
@@ -20919,7 +20919,7 @@
         <v>42677</v>
       </c>
       <c r="E345" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F345" t="s">
         <v>498</v>
@@ -20966,7 +20966,7 @@
         <v>43828</v>
       </c>
       <c r="E346" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F346" t="s">
         <v>499</v>
@@ -21013,7 +21013,7 @@
         <v>43828</v>
       </c>
       <c r="E347" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F347" t="s">
         <v>499</v>
@@ -21060,7 +21060,7 @@
         <v>43698</v>
       </c>
       <c r="E348" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F348" t="s">
         <v>500</v>
@@ -21107,7 +21107,7 @@
         <v>43698</v>
       </c>
       <c r="E349" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F349" t="s">
         <v>500</v>
@@ -21218,7 +21218,7 @@
         <v>42300</v>
       </c>
       <c r="E352" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F352" t="s">
         <v>501</v>
@@ -21265,7 +21265,7 @@
         <v>42300</v>
       </c>
       <c r="E353" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F353" t="s">
         <v>501</v>
@@ -21312,7 +21312,7 @@
         <v>43255</v>
       </c>
       <c r="E354" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F354" t="s">
         <v>502</v>
@@ -21359,7 +21359,7 @@
         <v>43255</v>
       </c>
       <c r="E355" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F355" t="s">
         <v>502</v>
@@ -21500,7 +21500,7 @@
         <v>42839</v>
       </c>
       <c r="E358" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F358" t="s">
         <v>504</v>
@@ -21547,7 +21547,7 @@
         <v>42839</v>
       </c>
       <c r="E359" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F359" t="s">
         <v>504</v>
@@ -21685,7 +21685,7 @@
         <v>259</v>
       </c>
       <c r="E362" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J362" t="s">
         <v>1046</v>
@@ -21720,7 +21720,7 @@
         <v>259</v>
       </c>
       <c r="E363" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J363" t="s">
         <v>1046</v>
@@ -21886,7 +21886,7 @@
         <v>42322</v>
       </c>
       <c r="E368" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F368" t="s">
         <v>506</v>
@@ -21936,7 +21936,7 @@
         <v>42322</v>
       </c>
       <c r="E369" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F369" t="s">
         <v>506</v>
@@ -22080,7 +22080,7 @@
         <v>43742</v>
       </c>
       <c r="E372" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F372" t="s">
         <v>508</v>
@@ -22127,7 +22127,7 @@
         <v>43742</v>
       </c>
       <c r="E373" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F373" t="s">
         <v>508</v>
@@ -22174,7 +22174,7 @@
         <v>42143</v>
       </c>
       <c r="E374" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F374" t="s">
         <v>509</v>
@@ -22224,7 +22224,7 @@
         <v>42143</v>
       </c>
       <c r="E375" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F375" t="s">
         <v>509</v>
@@ -22274,7 +22274,7 @@
         <v>42425</v>
       </c>
       <c r="E376" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F376" t="s">
         <v>510</v>
@@ -22321,7 +22321,7 @@
         <v>42425</v>
       </c>
       <c r="E377" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F377" t="s">
         <v>510</v>
@@ -22426,7 +22426,7 @@
         <v>42545</v>
       </c>
       <c r="E380" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F380" t="s">
         <v>511</v>
@@ -22473,7 +22473,7 @@
         <v>42545</v>
       </c>
       <c r="E381" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F381" t="s">
         <v>511</v>
@@ -22705,7 +22705,7 @@
         <v>271</v>
       </c>
       <c r="E386" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F386" t="s">
         <v>514</v>
@@ -22743,7 +22743,7 @@
         <v>271</v>
       </c>
       <c r="E387" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F387" t="s">
         <v>514</v>
@@ -22972,7 +22972,7 @@
         <v>42066</v>
       </c>
       <c r="E392" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F392" t="s">
         <v>517</v>
@@ -23019,7 +23019,7 @@
         <v>42066</v>
       </c>
       <c r="E393" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F393" t="s">
         <v>517</v>
@@ -23063,7 +23063,7 @@
         <v>275</v>
       </c>
       <c r="E394" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J394" t="s">
         <v>1046</v>
@@ -23098,7 +23098,7 @@
         <v>275</v>
       </c>
       <c r="E395" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J395" t="s">
         <v>1046</v>
@@ -23133,7 +23133,7 @@
         <v>276</v>
       </c>
       <c r="E396" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J396" t="s">
         <v>1046</v>
@@ -23168,7 +23168,7 @@
         <v>276</v>
       </c>
       <c r="E397" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J397" t="s">
         <v>1046</v>
@@ -23206,7 +23206,7 @@
         <v>42780</v>
       </c>
       <c r="E398" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F398" t="s">
         <v>518</v>
@@ -23253,7 +23253,7 @@
         <v>42780</v>
       </c>
       <c r="E399" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F399" t="s">
         <v>518</v>
@@ -23394,7 +23394,7 @@
         <v>43830</v>
       </c>
       <c r="E402" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F402" t="s">
         <v>520</v>
@@ -23444,7 +23444,7 @@
         <v>43830</v>
       </c>
       <c r="E403" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F403" t="s">
         <v>520</v>
@@ -23494,7 +23494,7 @@
         <v>42780</v>
       </c>
       <c r="E404" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F404" t="s">
         <v>518</v>
@@ -23541,7 +23541,7 @@
         <v>42780</v>
       </c>
       <c r="E405" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F405" t="s">
         <v>518</v>
@@ -23588,7 +23588,7 @@
         <v>42109</v>
       </c>
       <c r="E406" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F406" t="s">
         <v>521</v>
@@ -23635,7 +23635,7 @@
         <v>42109</v>
       </c>
       <c r="E407" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F407" t="s">
         <v>521</v>
@@ -23776,7 +23776,7 @@
         <v>43717</v>
       </c>
       <c r="E410" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F410" t="s">
         <v>523</v>
@@ -23823,7 +23823,7 @@
         <v>43717</v>
       </c>
       <c r="E411" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F411" t="s">
         <v>523</v>
@@ -23870,7 +23870,7 @@
         <v>42052</v>
       </c>
       <c r="E412" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F412" t="s">
         <v>524</v>
@@ -23917,7 +23917,7 @@
         <v>42052</v>
       </c>
       <c r="E413" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F413" t="s">
         <v>524</v>
@@ -24055,7 +24055,7 @@
         <v>286</v>
       </c>
       <c r="E416" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J416" t="s">
         <v>1046</v>
@@ -24090,7 +24090,7 @@
         <v>286</v>
       </c>
       <c r="E417" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J417" t="s">
         <v>1046</v>
@@ -24125,7 +24125,7 @@
         <v>287</v>
       </c>
       <c r="E418" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J418" t="s">
         <v>1046</v>
@@ -24160,7 +24160,7 @@
         <v>287</v>
       </c>
       <c r="E419" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J419" t="s">
         <v>1046</v>
@@ -24198,7 +24198,7 @@
         <v>42741</v>
       </c>
       <c r="E420" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F420" t="s">
         <v>526</v>
@@ -24245,7 +24245,7 @@
         <v>42741</v>
       </c>
       <c r="E421" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F421" t="s">
         <v>526</v>
@@ -24386,7 +24386,7 @@
         <v>43743</v>
       </c>
       <c r="E424" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F424" t="s">
         <v>528</v>
@@ -24433,7 +24433,7 @@
         <v>43743</v>
       </c>
       <c r="E425" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F425" t="s">
         <v>528</v>
@@ -24621,7 +24621,7 @@
         <v>42173</v>
       </c>
       <c r="E429" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F429" t="s">
         <v>531</v>
@@ -24715,7 +24715,7 @@
         <v>42164</v>
       </c>
       <c r="E431" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F431" t="s">
         <v>533</v>
@@ -24765,7 +24765,7 @@
         <v>42533</v>
       </c>
       <c r="E432" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F432" t="s">
         <v>534</v>
@@ -24812,7 +24812,7 @@
         <v>42533</v>
       </c>
       <c r="E433" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F433" t="s">
         <v>535</v>
@@ -24906,7 +24906,7 @@
         <v>42599</v>
       </c>
       <c r="E435" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F435" t="s">
         <v>537</v>
@@ -24953,7 +24953,7 @@
         <v>42537</v>
       </c>
       <c r="E436" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F436" t="s">
         <v>538</v>
@@ -25000,7 +25000,7 @@
         <v>42143</v>
       </c>
       <c r="E437" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F437" t="s">
         <v>539</v>
@@ -25047,7 +25047,7 @@
         <v>42143</v>
       </c>
       <c r="E438" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F438" t="s">
         <v>540</v>
@@ -25091,7 +25091,7 @@
         <v>302</v>
       </c>
       <c r="E439" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J439" t="s">
         <v>1046</v>
@@ -25129,7 +25129,7 @@
         <v>42143</v>
       </c>
       <c r="E440" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F440" t="s">
         <v>541</v>
@@ -25176,7 +25176,7 @@
         <v>42137</v>
       </c>
       <c r="E441" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F441" t="s">
         <v>542</v>
@@ -25270,7 +25270,7 @@
         <v>42456</v>
       </c>
       <c r="E443" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F443" t="s">
         <v>544</v>
@@ -25317,7 +25317,7 @@
         <v>42338</v>
       </c>
       <c r="E444" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F444" t="s">
         <v>545</v>
@@ -25364,7 +25364,7 @@
         <v>42687</v>
       </c>
       <c r="E445" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F445" t="s">
         <v>546</v>
@@ -25411,7 +25411,7 @@
         <v>42258</v>
       </c>
       <c r="E446" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F446" t="s">
         <v>547</v>
@@ -25505,7 +25505,7 @@
         <v>42521</v>
       </c>
       <c r="E448" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F448" t="s">
         <v>548</v>
@@ -25552,7 +25552,7 @@
         <v>42521</v>
       </c>
       <c r="E449" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F449" t="s">
         <v>548</v>
@@ -25599,7 +25599,7 @@
         <v>42096</v>
       </c>
       <c r="E450" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F450" t="s">
         <v>549</v>
@@ -25646,7 +25646,7 @@
         <v>42096</v>
       </c>
       <c r="E451" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F451" t="s">
         <v>550</v>
@@ -25693,7 +25693,7 @@
         <v>43861</v>
       </c>
       <c r="E452" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F452" t="s">
         <v>551</v>
@@ -25740,7 +25740,7 @@
         <v>43726</v>
       </c>
       <c r="E453" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F453" t="s">
         <v>552</v>
@@ -25787,7 +25787,7 @@
         <v>43651</v>
       </c>
       <c r="E454" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F454" t="s">
         <v>553</v>
@@ -25881,7 +25881,7 @@
         <v>43817</v>
       </c>
       <c r="E456" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F456" t="s">
         <v>555</v>
@@ -25928,7 +25928,7 @@
         <v>43052</v>
       </c>
       <c r="E457" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F457" t="s">
         <v>556</v>
@@ -25975,7 +25975,7 @@
         <v>43531</v>
       </c>
       <c r="E458" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F458" t="s">
         <v>557</v>
@@ -26069,7 +26069,7 @@
         <v>43743</v>
       </c>
       <c r="E460" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F460" t="s">
         <v>559</v>
@@ -26160,7 +26160,7 @@
         <v>325</v>
       </c>
       <c r="E462" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J462" t="s">
         <v>1046</v>
@@ -26198,7 +26198,7 @@
         <v>42200</v>
       </c>
       <c r="E463" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F463" t="s">
         <v>561</v>

--- a/assets/data/updates.xlsx
+++ b/assets/data/updates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5591" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5591" uniqueCount="1274">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3948,40 +3948,40 @@
     <t>Pro-farmer land reform__Strong pressure would be exerted on the Central government to remove unnecessary restrictions regarding land use in villages.</t>
   </si>
   <si>
-    <t>Power Department</t>
-  </si>
-  <si>
-    <t>Education Department</t>
-  </si>
-  <si>
-    <t>Finance Department</t>
-  </si>
-  <si>
-    <t>Health Department</t>
-  </si>
-  <si>
-    <t>Transport Department</t>
-  </si>
-  <si>
-    <t>Services Department</t>
-  </si>
-  <si>
-    <t>Employment Department</t>
-  </si>
-  <si>
-    <t>Industries Department</t>
-  </si>
-  <si>
-    <t>Law Department</t>
-  </si>
-  <si>
-    <t>Labour Department</t>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Labour</t>
   </si>
   <si>
     <t>Delhi Assembly</t>
   </si>
   <si>
-    <t>IT Department</t>
+    <t>IT</t>
   </si>
   <si>
     <t>Delhi Jal Board</t>
@@ -3990,31 +3990,31 @@
     <t>DUSIB</t>
   </si>
   <si>
-    <t>Irrigation and Flood Control Department</t>
-  </si>
-  <si>
-    <t>Public Works Department</t>
-  </si>
-  <si>
-    <t>Environment Department</t>
-  </si>
-  <si>
-    <t>Revenue Department</t>
+    <t>Irrigation and Flood Control</t>
+  </si>
+  <si>
+    <t>Public Works</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
   <si>
     <t>Anti Corruption Bureau</t>
   </si>
   <si>
-    <t>Social Welfare Department</t>
-  </si>
-  <si>
-    <t>Urban Development Department</t>
-  </si>
-  <si>
-    <t>Art, Culture and Languages Department</t>
-  </si>
-  <si>
-    <t>Food and Civil Supplies Department</t>
+    <t>Social Welfare</t>
+  </si>
+  <si>
+    <t>Urban Development</t>
+  </si>
+  <si>
+    <t>Art, Culture and Languages</t>
+  </si>
+  <si>
+    <t>Food and Civil Supplies</t>
   </si>
   <si>
     <t>MCD</t>
@@ -4026,12 +4026,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Employment</t>
-  </si>
-  <si>
     <t>Governance</t>
   </si>
   <si>
@@ -4045,9 +4039,6 @@
   </si>
   <si>
     <t>Women's Safety</t>
-  </si>
-  <si>
-    <t>Social Welfare</t>
   </si>
   <si>
     <t>Technology</t>
@@ -4937,7 +4928,7 @@
         <v>1236</v>
       </c>
       <c r="Q10" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4990,7 +4981,7 @@
         <v>1236</v>
       </c>
       <c r="Q11" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -5037,7 +5028,7 @@
         <v>1236</v>
       </c>
       <c r="Q12" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5084,7 +5075,7 @@
         <v>1236</v>
       </c>
       <c r="Q13" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -5131,7 +5122,7 @@
         <v>1236</v>
       </c>
       <c r="Q14" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5181,7 +5172,7 @@
         <v>1236</v>
       </c>
       <c r="Q15" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5234,7 +5225,7 @@
         <v>1236</v>
       </c>
       <c r="Q16" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -5281,7 +5272,7 @@
         <v>1236</v>
       </c>
       <c r="Q17" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -5328,7 +5319,7 @@
         <v>1236</v>
       </c>
       <c r="Q18" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -5375,7 +5366,7 @@
         <v>1236</v>
       </c>
       <c r="Q19" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -5428,7 +5419,7 @@
         <v>1236</v>
       </c>
       <c r="Q20" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5481,7 +5472,7 @@
         <v>1236</v>
       </c>
       <c r="Q21" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5528,7 +5519,7 @@
         <v>1236</v>
       </c>
       <c r="Q22" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -5581,7 +5572,7 @@
         <v>1236</v>
       </c>
       <c r="Q23" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -5634,7 +5625,7 @@
         <v>1236</v>
       </c>
       <c r="Q24" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -5681,7 +5672,7 @@
         <v>1236</v>
       </c>
       <c r="Q25" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5734,7 +5725,7 @@
         <v>1236</v>
       </c>
       <c r="Q26" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5784,7 +5775,7 @@
         <v>1236</v>
       </c>
       <c r="Q27" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5834,7 +5825,7 @@
         <v>1236</v>
       </c>
       <c r="Q28" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5881,7 +5872,7 @@
         <v>1236</v>
       </c>
       <c r="Q29" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5934,7 +5925,7 @@
         <v>1236</v>
       </c>
       <c r="Q30" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5984,7 +5975,7 @@
         <v>1236</v>
       </c>
       <c r="Q31" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6034,7 +6025,7 @@
         <v>1236</v>
       </c>
       <c r="Q32" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -6081,7 +6072,7 @@
         <v>1236</v>
       </c>
       <c r="Q33" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -6134,7 +6125,7 @@
         <v>1236</v>
       </c>
       <c r="Q34" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -6181,7 +6172,7 @@
         <v>1236</v>
       </c>
       <c r="Q35" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -6228,7 +6219,7 @@
         <v>1236</v>
       </c>
       <c r="Q36" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -6281,7 +6272,7 @@
         <v>1236</v>
       </c>
       <c r="Q37" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -6328,7 +6319,7 @@
         <v>1236</v>
       </c>
       <c r="Q38" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -6375,7 +6366,7 @@
         <v>1236</v>
       </c>
       <c r="Q39" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -6428,7 +6419,7 @@
         <v>1236</v>
       </c>
       <c r="Q40" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -6478,7 +6469,7 @@
         <v>1236</v>
       </c>
       <c r="Q41" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -6531,7 +6522,7 @@
         <v>1236</v>
       </c>
       <c r="Q42" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -6581,7 +6572,7 @@
         <v>1236</v>
       </c>
       <c r="Q43" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -6634,7 +6625,7 @@
         <v>1236</v>
       </c>
       <c r="Q44" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -6687,7 +6678,7 @@
         <v>1236</v>
       </c>
       <c r="Q45" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -6740,7 +6731,7 @@
         <v>1236</v>
       </c>
       <c r="Q46" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -6793,7 +6784,7 @@
         <v>1236</v>
       </c>
       <c r="Q47" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6843,7 +6834,7 @@
         <v>1236</v>
       </c>
       <c r="Q48" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -6890,7 +6881,7 @@
         <v>1236</v>
       </c>
       <c r="Q49" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6943,7 +6934,7 @@
         <v>1236</v>
       </c>
       <c r="Q50" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -6996,7 +6987,7 @@
         <v>1236</v>
       </c>
       <c r="Q51" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -7049,7 +7040,7 @@
         <v>1236</v>
       </c>
       <c r="Q52" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -7102,7 +7093,7 @@
         <v>1236</v>
       </c>
       <c r="Q53" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -7152,7 +7143,7 @@
         <v>1236</v>
       </c>
       <c r="Q54" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -7199,7 +7190,7 @@
         <v>1236</v>
       </c>
       <c r="Q55" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -7252,7 +7243,7 @@
         <v>1236</v>
       </c>
       <c r="Q56" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -7302,7 +7293,7 @@
         <v>1236</v>
       </c>
       <c r="Q57" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -7355,7 +7346,7 @@
         <v>1236</v>
       </c>
       <c r="Q58" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -7405,7 +7396,7 @@
         <v>1236</v>
       </c>
       <c r="Q59" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -7455,7 +7446,7 @@
         <v>1236</v>
       </c>
       <c r="Q60" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -7505,7 +7496,7 @@
         <v>1236</v>
       </c>
       <c r="Q61" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7555,7 +7546,7 @@
         <v>1236</v>
       </c>
       <c r="Q62" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -7602,7 +7593,7 @@
         <v>1236</v>
       </c>
       <c r="Q63" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -7652,7 +7643,7 @@
         <v>1236</v>
       </c>
       <c r="Q64" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7702,7 +7693,7 @@
         <v>1236</v>
       </c>
       <c r="Q65" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -7752,7 +7743,7 @@
         <v>1236</v>
       </c>
       <c r="Q66" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -7799,7 +7790,7 @@
         <v>1236</v>
       </c>
       <c r="Q67" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -7852,7 +7843,7 @@
         <v>1237</v>
       </c>
       <c r="Q68" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7899,7 +7890,7 @@
         <v>1237</v>
       </c>
       <c r="Q69" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7946,7 +7937,7 @@
         <v>1237</v>
       </c>
       <c r="Q70" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -7999,7 +7990,7 @@
         <v>1237</v>
       </c>
       <c r="Q71" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -8046,7 +8037,7 @@
         <v>1237</v>
       </c>
       <c r="Q72" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -8093,7 +8084,7 @@
         <v>1237</v>
       </c>
       <c r="Q73" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -8146,7 +8137,7 @@
         <v>1237</v>
       </c>
       <c r="Q74" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -8199,7 +8190,7 @@
         <v>1237</v>
       </c>
       <c r="Q75" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -8252,7 +8243,7 @@
         <v>1237</v>
       </c>
       <c r="Q76" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -8305,7 +8296,7 @@
         <v>1237</v>
       </c>
       <c r="Q77" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -8358,7 +8349,7 @@
         <v>1237</v>
       </c>
       <c r="Q78" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8411,7 +8402,7 @@
         <v>1237</v>
       </c>
       <c r="Q79" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -8458,7 +8449,7 @@
         <v>1238</v>
       </c>
       <c r="Q80" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -8505,7 +8496,7 @@
         <v>1238</v>
       </c>
       <c r="Q81" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -8552,7 +8543,7 @@
         <v>1238</v>
       </c>
       <c r="Q82" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -8599,7 +8590,7 @@
         <v>1238</v>
       </c>
       <c r="Q83" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -8646,7 +8637,7 @@
         <v>1238</v>
       </c>
       <c r="Q84" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -8693,7 +8684,7 @@
         <v>1238</v>
       </c>
       <c r="Q85" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -8740,7 +8731,7 @@
         <v>1238</v>
       </c>
       <c r="Q86" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -8787,7 +8778,7 @@
         <v>1238</v>
       </c>
       <c r="Q87" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -8837,7 +8828,7 @@
         <v>1236</v>
       </c>
       <c r="Q88" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -8887,7 +8878,7 @@
         <v>1236</v>
       </c>
       <c r="Q89" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -8934,7 +8925,7 @@
         <v>1236</v>
       </c>
       <c r="Q90" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8981,7 +8972,7 @@
         <v>1236</v>
       </c>
       <c r="Q91" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -9028,7 +9019,7 @@
         <v>1236</v>
       </c>
       <c r="Q92" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -9075,7 +9066,7 @@
         <v>1236</v>
       </c>
       <c r="Q93" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -9122,7 +9113,7 @@
         <v>1236</v>
       </c>
       <c r="Q94" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -9169,7 +9160,7 @@
         <v>1236</v>
       </c>
       <c r="Q95" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -9216,7 +9207,7 @@
         <v>1236</v>
       </c>
       <c r="Q96" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -9263,7 +9254,7 @@
         <v>1236</v>
       </c>
       <c r="Q97" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -9310,7 +9301,7 @@
         <v>1236</v>
       </c>
       <c r="Q98" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -9357,7 +9348,7 @@
         <v>1236</v>
       </c>
       <c r="Q99" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -9404,7 +9395,7 @@
         <v>1236</v>
       </c>
       <c r="Q100" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -9451,7 +9442,7 @@
         <v>1236</v>
       </c>
       <c r="Q101" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -9498,7 +9489,7 @@
         <v>1236</v>
       </c>
       <c r="Q102" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -9545,7 +9536,7 @@
         <v>1236</v>
       </c>
       <c r="Q103" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -9592,7 +9583,7 @@
         <v>1236</v>
       </c>
       <c r="Q104" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -9639,7 +9630,7 @@
         <v>1236</v>
       </c>
       <c r="Q105" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -9686,7 +9677,7 @@
         <v>1236</v>
       </c>
       <c r="Q106" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -9733,7 +9724,7 @@
         <v>1236</v>
       </c>
       <c r="Q107" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9780,7 +9771,7 @@
         <v>1236</v>
       </c>
       <c r="Q108" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -9827,7 +9818,7 @@
         <v>1236</v>
       </c>
       <c r="Q109" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -9874,7 +9865,7 @@
         <v>1239</v>
       </c>
       <c r="Q110" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -9921,7 +9912,7 @@
         <v>1239</v>
       </c>
       <c r="Q111" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -9968,7 +9959,7 @@
         <v>1240</v>
       </c>
       <c r="Q112" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -10015,7 +10006,7 @@
         <v>1240</v>
       </c>
       <c r="Q113" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -10062,7 +10053,7 @@
         <v>1238</v>
       </c>
       <c r="Q114" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -10109,7 +10100,7 @@
         <v>1238</v>
       </c>
       <c r="Q115" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -10156,7 +10147,7 @@
         <v>1238</v>
       </c>
       <c r="Q116" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -10203,7 +10194,7 @@
         <v>1238</v>
       </c>
       <c r="Q117" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -10250,7 +10241,7 @@
         <v>1238</v>
       </c>
       <c r="Q118" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -10297,7 +10288,7 @@
         <v>1238</v>
       </c>
       <c r="Q119" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -10344,7 +10335,7 @@
         <v>1238</v>
       </c>
       <c r="Q120" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -10391,7 +10382,7 @@
         <v>1238</v>
       </c>
       <c r="Q121" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -10438,7 +10429,7 @@
         <v>1241</v>
       </c>
       <c r="Q122" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -10485,7 +10476,7 @@
         <v>1241</v>
       </c>
       <c r="Q123" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -10532,7 +10523,7 @@
         <v>1242</v>
       </c>
       <c r="Q124" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -10579,7 +10570,7 @@
         <v>1242</v>
       </c>
       <c r="Q125" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -10626,7 +10617,7 @@
         <v>1242</v>
       </c>
       <c r="Q126" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -10673,7 +10664,7 @@
         <v>1242</v>
       </c>
       <c r="Q127" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -12130,7 +12121,7 @@
         <v>1243</v>
       </c>
       <c r="Q158" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -12177,7 +12168,7 @@
         <v>1243</v>
       </c>
       <c r="Q159" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -12224,7 +12215,7 @@
         <v>1239</v>
       </c>
       <c r="Q160" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="161" spans="1:17">
@@ -12271,7 +12262,7 @@
         <v>1239</v>
       </c>
       <c r="Q161" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="162" spans="1:17">
@@ -12318,7 +12309,7 @@
         <v>1236</v>
       </c>
       <c r="Q162" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="163" spans="1:17">
@@ -12368,7 +12359,7 @@
         <v>1236</v>
       </c>
       <c r="Q163" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="164" spans="1:17">
@@ -12415,7 +12406,7 @@
         <v>1236</v>
       </c>
       <c r="Q164" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="165" spans="1:17">
@@ -12462,7 +12453,7 @@
         <v>1236</v>
       </c>
       <c r="Q165" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="166" spans="1:17">
@@ -12512,7 +12503,7 @@
         <v>1236</v>
       </c>
       <c r="Q166" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="167" spans="1:17">
@@ -12559,7 +12550,7 @@
         <v>1236</v>
       </c>
       <c r="Q167" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="168" spans="1:17">
@@ -12606,7 +12597,7 @@
         <v>1235</v>
       </c>
       <c r="Q168" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="169" spans="1:17">
@@ -12653,7 +12644,7 @@
         <v>1235</v>
       </c>
       <c r="Q169" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="170" spans="1:17">
@@ -12700,7 +12691,7 @@
         <v>1235</v>
       </c>
       <c r="Q170" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="171" spans="1:17">
@@ -12747,7 +12738,7 @@
         <v>1235</v>
       </c>
       <c r="Q171" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="172" spans="1:17">
@@ -12794,7 +12785,7 @@
         <v>1235</v>
       </c>
       <c r="Q172" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="173" spans="1:17">
@@ -12841,7 +12832,7 @@
         <v>1235</v>
       </c>
       <c r="Q173" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="174" spans="1:17">
@@ -12888,7 +12879,7 @@
         <v>1236</v>
       </c>
       <c r="Q174" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="175" spans="1:17">
@@ -12935,7 +12926,7 @@
         <v>1236</v>
       </c>
       <c r="Q175" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="176" spans="1:17">
@@ -12982,7 +12973,7 @@
         <v>1244</v>
       </c>
       <c r="Q176" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="177" spans="1:17">
@@ -13029,7 +13020,7 @@
         <v>1244</v>
       </c>
       <c r="Q177" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="178" spans="1:17">
@@ -13076,7 +13067,7 @@
         <v>1245</v>
       </c>
       <c r="Q178" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="179" spans="1:17">
@@ -13123,7 +13114,7 @@
         <v>1245</v>
       </c>
       <c r="Q179" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="180" spans="1:17">
@@ -13173,7 +13164,7 @@
         <v>1237</v>
       </c>
       <c r="Q180" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="181" spans="1:17">
@@ -13223,7 +13214,7 @@
         <v>1237</v>
       </c>
       <c r="Q181" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="182" spans="1:17">
@@ -13270,7 +13261,7 @@
         <v>1244</v>
       </c>
       <c r="Q182" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="183" spans="1:17">
@@ -13317,7 +13308,7 @@
         <v>1244</v>
       </c>
       <c r="Q183" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="184" spans="1:17">
@@ -13367,7 +13358,7 @@
         <v>1245</v>
       </c>
       <c r="Q184" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="185" spans="1:17">
@@ -13417,7 +13408,7 @@
         <v>1245</v>
       </c>
       <c r="Q185" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -13467,7 +13458,7 @@
         <v>1246</v>
       </c>
       <c r="Q186" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="187" spans="1:17">
@@ -13514,7 +13505,7 @@
         <v>1246</v>
       </c>
       <c r="Q187" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="188" spans="1:17">
@@ -13561,7 +13552,7 @@
         <v>1246</v>
       </c>
       <c r="Q188" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="189" spans="1:17">
@@ -13608,7 +13599,7 @@
         <v>1246</v>
       </c>
       <c r="Q189" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="190" spans="1:17">
@@ -13655,7 +13646,7 @@
         <v>1246</v>
       </c>
       <c r="Q190" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="191" spans="1:17">
@@ -13705,7 +13696,7 @@
         <v>1246</v>
       </c>
       <c r="Q191" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="192" spans="1:17">
@@ -13752,7 +13743,7 @@
         <v>1246</v>
       </c>
       <c r="Q192" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -13799,7 +13790,7 @@
         <v>1246</v>
       </c>
       <c r="Q193" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="194" spans="1:17">
@@ -13846,7 +13837,7 @@
         <v>1246</v>
       </c>
       <c r="Q194" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="195" spans="1:17">
@@ -13893,7 +13884,7 @@
         <v>1246</v>
       </c>
       <c r="Q195" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="196" spans="1:17">
@@ -13940,7 +13931,7 @@
         <v>1247</v>
       </c>
       <c r="Q196" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="197" spans="1:17">
@@ -13987,7 +13978,7 @@
         <v>1247</v>
       </c>
       <c r="Q197" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="198" spans="1:17">
@@ -14034,7 +14025,7 @@
         <v>1247</v>
       </c>
       <c r="Q198" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="199" spans="1:17">
@@ -14081,7 +14072,7 @@
         <v>1247</v>
       </c>
       <c r="Q199" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="200" spans="1:17">
@@ -14128,7 +14119,7 @@
         <v>1240</v>
       </c>
       <c r="Q200" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="201" spans="1:17">
@@ -14175,7 +14166,7 @@
         <v>1240</v>
       </c>
       <c r="Q201" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="202" spans="1:17">
@@ -14222,7 +14213,7 @@
         <v>1246</v>
       </c>
       <c r="Q202" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="203" spans="1:17">
@@ -14269,7 +14260,7 @@
         <v>1246</v>
       </c>
       <c r="Q203" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="204" spans="1:17">
@@ -14316,7 +14307,7 @@
         <v>1246</v>
       </c>
       <c r="Q204" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="205" spans="1:17">
@@ -14363,7 +14354,7 @@
         <v>1246</v>
       </c>
       <c r="Q205" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="206" spans="1:17">
@@ -14410,7 +14401,7 @@
         <v>1248</v>
       </c>
       <c r="Q206" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="207" spans="1:17">
@@ -14457,7 +14448,7 @@
         <v>1248</v>
       </c>
       <c r="Q207" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="208" spans="1:17">
@@ -14507,7 +14498,7 @@
         <v>1249</v>
       </c>
       <c r="Q208" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="209" spans="1:17">
@@ -14557,7 +14548,7 @@
         <v>1249</v>
       </c>
       <c r="Q209" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="210" spans="1:17">
@@ -14604,7 +14595,7 @@
         <v>1249</v>
       </c>
       <c r="Q210" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="211" spans="1:17">
@@ -14654,7 +14645,7 @@
         <v>1249</v>
       </c>
       <c r="Q211" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="212" spans="1:17">
@@ -14704,7 +14695,7 @@
         <v>1249</v>
       </c>
       <c r="Q212" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="213" spans="1:17">
@@ -14751,7 +14742,7 @@
         <v>1249</v>
       </c>
       <c r="Q213" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="214" spans="1:17">
@@ -14798,7 +14789,7 @@
         <v>1247</v>
       </c>
       <c r="Q214" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="215" spans="1:17">
@@ -14845,7 +14836,7 @@
         <v>1247</v>
       </c>
       <c r="Q215" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="216" spans="1:17">
@@ -14895,7 +14886,7 @@
         <v>1247</v>
       </c>
       <c r="Q216" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="217" spans="1:17">
@@ -14945,7 +14936,7 @@
         <v>1247</v>
       </c>
       <c r="Q217" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="218" spans="1:17">
@@ -14992,7 +14983,7 @@
         <v>1235</v>
       </c>
       <c r="Q218" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="219" spans="1:17">
@@ -15039,7 +15030,7 @@
         <v>1235</v>
       </c>
       <c r="Q219" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="220" spans="1:17">
@@ -15089,7 +15080,7 @@
         <v>1250</v>
       </c>
       <c r="Q220" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="221" spans="1:17">
@@ -15139,7 +15130,7 @@
         <v>1250</v>
       </c>
       <c r="Q221" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="222" spans="1:17">
@@ -15186,7 +15177,7 @@
         <v>1247</v>
       </c>
       <c r="Q222" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="223" spans="1:17">
@@ -15233,7 +15224,7 @@
         <v>1247</v>
       </c>
       <c r="Q223" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="224" spans="1:17">
@@ -15280,7 +15271,7 @@
         <v>1247</v>
       </c>
       <c r="Q224" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="225" spans="1:17">
@@ -15327,7 +15318,7 @@
         <v>1247</v>
       </c>
       <c r="Q225" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="226" spans="1:17">
@@ -15374,7 +15365,7 @@
         <v>1247</v>
       </c>
       <c r="Q226" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="227" spans="1:17">
@@ -15421,7 +15412,7 @@
         <v>1247</v>
       </c>
       <c r="Q227" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="228" spans="1:17">
@@ -15468,7 +15459,7 @@
         <v>1247</v>
       </c>
       <c r="Q228" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="229" spans="1:17">
@@ -15515,7 +15506,7 @@
         <v>1247</v>
       </c>
       <c r="Q229" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="230" spans="1:17">
@@ -15562,7 +15553,7 @@
         <v>1247</v>
       </c>
       <c r="Q230" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="231" spans="1:17">
@@ -15609,7 +15600,7 @@
         <v>1247</v>
       </c>
       <c r="Q231" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="232" spans="1:17">
@@ -15656,7 +15647,7 @@
         <v>1247</v>
       </c>
       <c r="Q232" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="233" spans="1:17">
@@ -15703,7 +15694,7 @@
         <v>1247</v>
       </c>
       <c r="Q233" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="234" spans="1:17">
@@ -16126,7 +16117,7 @@
         <v>1236</v>
       </c>
       <c r="Q242" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -16173,7 +16164,7 @@
         <v>1236</v>
       </c>
       <c r="Q243" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="244" spans="1:17">
@@ -16223,7 +16214,7 @@
         <v>1239</v>
       </c>
       <c r="Q244" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="245" spans="1:17">
@@ -16273,7 +16264,7 @@
         <v>1239</v>
       </c>
       <c r="Q245" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="246" spans="1:17">
@@ -16320,7 +16311,7 @@
         <v>1251</v>
       </c>
       <c r="Q246" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="247" spans="1:17">
@@ -16367,7 +16358,7 @@
         <v>1251</v>
       </c>
       <c r="Q247" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="248" spans="1:17">
@@ -16414,7 +16405,7 @@
         <v>1251</v>
       </c>
       <c r="Q248" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -16461,7 +16452,7 @@
         <v>1251</v>
       </c>
       <c r="Q249" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="250" spans="1:17">
@@ -16508,7 +16499,7 @@
         <v>1250</v>
       </c>
       <c r="Q250" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -16555,7 +16546,7 @@
         <v>1250</v>
       </c>
       <c r="Q251" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -16602,7 +16593,7 @@
         <v>1239</v>
       </c>
       <c r="Q252" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="253" spans="1:17">
@@ -16649,7 +16640,7 @@
         <v>1239</v>
       </c>
       <c r="Q253" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="254" spans="1:17">
@@ -16696,7 +16687,7 @@
         <v>1239</v>
       </c>
       <c r="Q254" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="255" spans="1:17">
@@ -16743,7 +16734,7 @@
         <v>1239</v>
       </c>
       <c r="Q255" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="256" spans="1:17">
@@ -16790,7 +16781,7 @@
         <v>1239</v>
       </c>
       <c r="Q256" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="257" spans="1:17">
@@ -16837,7 +16828,7 @@
         <v>1239</v>
       </c>
       <c r="Q257" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="258" spans="1:17">
@@ -16884,7 +16875,7 @@
         <v>1239</v>
       </c>
       <c r="Q258" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="259" spans="1:17">
@@ -16931,7 +16922,7 @@
         <v>1239</v>
       </c>
       <c r="Q259" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="260" spans="1:17">
@@ -16981,7 +16972,7 @@
         <v>1239</v>
       </c>
       <c r="Q260" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="261" spans="1:17">
@@ -17031,7 +17022,7 @@
         <v>1239</v>
       </c>
       <c r="Q261" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="262" spans="1:17">
@@ -17078,7 +17069,7 @@
         <v>1239</v>
       </c>
       <c r="Q262" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="263" spans="1:17">
@@ -17125,7 +17116,7 @@
         <v>1239</v>
       </c>
       <c r="Q263" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="264" spans="1:17">
@@ -17175,7 +17166,7 @@
         <v>1252</v>
       </c>
       <c r="Q264" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="265" spans="1:17">
@@ -17225,7 +17216,7 @@
         <v>1252</v>
       </c>
       <c r="Q265" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="266" spans="1:17">
@@ -17272,7 +17263,7 @@
         <v>1239</v>
       </c>
       <c r="Q266" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="267" spans="1:17">
@@ -17319,7 +17310,7 @@
         <v>1239</v>
       </c>
       <c r="Q267" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="268" spans="1:17">
@@ -17366,7 +17357,7 @@
         <v>1252</v>
       </c>
       <c r="Q268" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="269" spans="1:17">
@@ -17413,7 +17404,7 @@
         <v>1252</v>
       </c>
       <c r="Q269" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="270" spans="1:17">
@@ -17460,7 +17451,7 @@
         <v>1239</v>
       </c>
       <c r="Q270" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="271" spans="1:17">
@@ -17507,7 +17498,7 @@
         <v>1239</v>
       </c>
       <c r="Q271" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="272" spans="1:17">
@@ -17554,7 +17545,7 @@
         <v>1239</v>
       </c>
       <c r="Q272" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="273" spans="1:17">
@@ -17601,7 +17592,7 @@
         <v>1239</v>
       </c>
       <c r="Q273" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="274" spans="1:17">
@@ -17648,7 +17639,7 @@
         <v>1250</v>
       </c>
       <c r="Q274" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="275" spans="1:17">
@@ -17695,7 +17686,7 @@
         <v>1250</v>
       </c>
       <c r="Q275" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="276" spans="1:17">
@@ -17742,7 +17733,7 @@
         <v>1239</v>
       </c>
       <c r="Q276" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="277" spans="1:17">
@@ -17789,7 +17780,7 @@
         <v>1239</v>
       </c>
       <c r="Q277" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="278" spans="1:17">
@@ -17836,7 +17827,7 @@
         <v>1239</v>
       </c>
       <c r="Q278" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="279" spans="1:17">
@@ -17883,7 +17874,7 @@
         <v>1239</v>
       </c>
       <c r="Q279" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="280" spans="1:17">
@@ -17930,7 +17921,7 @@
         <v>1239</v>
       </c>
       <c r="Q280" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="281" spans="1:17">
@@ -17977,7 +17968,7 @@
         <v>1239</v>
       </c>
       <c r="Q281" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="282" spans="1:17">
@@ -18024,7 +18015,7 @@
         <v>1239</v>
       </c>
       <c r="Q282" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="283" spans="1:17">
@@ -18071,7 +18062,7 @@
         <v>1239</v>
       </c>
       <c r="Q283" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="284" spans="1:17">
@@ -18118,7 +18109,7 @@
         <v>1239</v>
       </c>
       <c r="Q284" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="285" spans="1:17">
@@ -18165,7 +18156,7 @@
         <v>1239</v>
       </c>
       <c r="Q285" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="286" spans="1:17">
@@ -18212,7 +18203,7 @@
         <v>1247</v>
       </c>
       <c r="Q286" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="287" spans="1:17">
@@ -18259,7 +18250,7 @@
         <v>1247</v>
       </c>
       <c r="Q287" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="288" spans="1:17">
@@ -18306,7 +18297,7 @@
         <v>1247</v>
       </c>
       <c r="Q288" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="289" spans="1:17">
@@ -18353,7 +18344,7 @@
         <v>1247</v>
       </c>
       <c r="Q289" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="290" spans="1:17">
@@ -18400,7 +18391,7 @@
         <v>1247</v>
       </c>
       <c r="Q290" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="291" spans="1:17">
@@ -18447,7 +18438,7 @@
         <v>1247</v>
       </c>
       <c r="Q291" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="292" spans="1:17">
@@ -18494,7 +18485,7 @@
         <v>1246</v>
       </c>
       <c r="Q292" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="293" spans="1:17">
@@ -18541,7 +18532,7 @@
         <v>1246</v>
       </c>
       <c r="Q293" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="294" spans="1:17">
@@ -18588,7 +18579,7 @@
         <v>1246</v>
       </c>
       <c r="Q294" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="295" spans="1:17">
@@ -18635,7 +18626,7 @@
         <v>1246</v>
       </c>
       <c r="Q295" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="296" spans="1:17">
@@ -18682,7 +18673,7 @@
         <v>1246</v>
       </c>
       <c r="Q296" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="297" spans="1:17">
@@ -18729,7 +18720,7 @@
         <v>1246</v>
       </c>
       <c r="Q297" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="298" spans="1:17">
@@ -18776,7 +18767,7 @@
         <v>1246</v>
       </c>
       <c r="Q298" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="299" spans="1:17">
@@ -18823,7 +18814,7 @@
         <v>1246</v>
       </c>
       <c r="Q299" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="300" spans="1:17">
@@ -18870,7 +18861,7 @@
         <v>1246</v>
       </c>
       <c r="Q300" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="301" spans="1:17">
@@ -18917,7 +18908,7 @@
         <v>1246</v>
       </c>
       <c r="Q301" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="302" spans="1:17">
@@ -18964,7 +18955,7 @@
         <v>1246</v>
       </c>
       <c r="Q302" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="303" spans="1:17">
@@ -19011,7 +19002,7 @@
         <v>1246</v>
       </c>
       <c r="Q303" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="304" spans="1:17">
@@ -19058,7 +19049,7 @@
         <v>1239</v>
       </c>
       <c r="Q304" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="305" spans="1:17">
@@ -19105,7 +19096,7 @@
         <v>1239</v>
       </c>
       <c r="Q305" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="306" spans="1:17">
@@ -19152,7 +19143,7 @@
         <v>1239</v>
       </c>
       <c r="Q306" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="307" spans="1:17">
@@ -19199,7 +19190,7 @@
         <v>1239</v>
       </c>
       <c r="Q307" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="308" spans="1:17">
@@ -19246,7 +19237,7 @@
         <v>1249</v>
       </c>
       <c r="Q308" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="309" spans="1:17">
@@ -19293,7 +19284,7 @@
         <v>1249</v>
       </c>
       <c r="Q309" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="310" spans="1:17">
@@ -19340,7 +19331,7 @@
         <v>1249</v>
       </c>
       <c r="Q310" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="311" spans="1:17">
@@ -19387,7 +19378,7 @@
         <v>1249</v>
       </c>
       <c r="Q311" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="312" spans="1:17">
@@ -19434,7 +19425,7 @@
         <v>1239</v>
       </c>
       <c r="Q312" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="313" spans="1:17">
@@ -19481,7 +19472,7 @@
         <v>1239</v>
       </c>
       <c r="Q313" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="314" spans="1:17">
@@ -19528,7 +19519,7 @@
         <v>1239</v>
       </c>
       <c r="Q314" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="315" spans="1:17">
@@ -19575,7 +19566,7 @@
         <v>1239</v>
       </c>
       <c r="Q315" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="316" spans="1:17">
@@ -19622,7 +19613,7 @@
         <v>1239</v>
       </c>
       <c r="Q316" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="317" spans="1:17">
@@ -19669,7 +19660,7 @@
         <v>1239</v>
       </c>
       <c r="Q317" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="318" spans="1:17">
@@ -19716,7 +19707,7 @@
         <v>1239</v>
       </c>
       <c r="Q318" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="319" spans="1:17">
@@ -19763,7 +19754,7 @@
         <v>1239</v>
       </c>
       <c r="Q319" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="320" spans="1:17">
@@ -19810,7 +19801,7 @@
         <v>1239</v>
       </c>
       <c r="Q320" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="321" spans="1:17">
@@ -19857,7 +19848,7 @@
         <v>1239</v>
       </c>
       <c r="Q321" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="322" spans="1:17">
@@ -19901,7 +19892,7 @@
         <v>1239</v>
       </c>
       <c r="Q322" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="323" spans="1:17">
@@ -19945,7 +19936,7 @@
         <v>1239</v>
       </c>
       <c r="Q323" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="324" spans="1:17">
@@ -19992,7 +19983,7 @@
         <v>1239</v>
       </c>
       <c r="Q324" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="325" spans="1:17">
@@ -20039,7 +20030,7 @@
         <v>1239</v>
       </c>
       <c r="Q325" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="326" spans="1:17">
@@ -20083,7 +20074,7 @@
         <v>1239</v>
       </c>
       <c r="Q326" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="327" spans="1:17">
@@ -20127,7 +20118,7 @@
         <v>1239</v>
       </c>
       <c r="Q327" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="328" spans="1:17">
@@ -20174,7 +20165,7 @@
         <v>1238</v>
       </c>
       <c r="Q328" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="329" spans="1:17">
@@ -20221,7 +20212,7 @@
         <v>1238</v>
       </c>
       <c r="Q329" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="330" spans="1:17">
@@ -20268,7 +20259,7 @@
         <v>1253</v>
       </c>
       <c r="Q330" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="331" spans="1:17">
@@ -20315,7 +20306,7 @@
         <v>1253</v>
       </c>
       <c r="Q331" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="332" spans="1:17">
@@ -20362,7 +20353,7 @@
         <v>1238</v>
       </c>
       <c r="Q332" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="333" spans="1:17">
@@ -20409,7 +20400,7 @@
         <v>1238</v>
       </c>
       <c r="Q333" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="334" spans="1:17">
@@ -20456,7 +20447,7 @@
         <v>1236</v>
       </c>
       <c r="Q334" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="335" spans="1:17">
@@ -20503,7 +20494,7 @@
         <v>1236</v>
       </c>
       <c r="Q335" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="336" spans="1:17">
@@ -20550,7 +20541,7 @@
         <v>1254</v>
       </c>
       <c r="Q336" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="337" spans="1:17">
@@ -20597,7 +20588,7 @@
         <v>1254</v>
       </c>
       <c r="Q337" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="338" spans="1:17">
@@ -20632,7 +20623,7 @@
         <v>1254</v>
       </c>
       <c r="Q338" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="339" spans="1:17">
@@ -20667,7 +20658,7 @@
         <v>1254</v>
       </c>
       <c r="Q339" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="340" spans="1:17">
@@ -20714,7 +20705,7 @@
         <v>1236</v>
       </c>
       <c r="Q340" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="341" spans="1:17">
@@ -20761,7 +20752,7 @@
         <v>1236</v>
       </c>
       <c r="Q341" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="342" spans="1:17">
@@ -20808,7 +20799,7 @@
         <v>1236</v>
       </c>
       <c r="Q342" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="343" spans="1:17">
@@ -20855,7 +20846,7 @@
         <v>1236</v>
       </c>
       <c r="Q343" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="344" spans="1:17">
@@ -20902,7 +20893,7 @@
         <v>1245</v>
       </c>
       <c r="Q344" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="345" spans="1:17">
@@ -20949,7 +20940,7 @@
         <v>1245</v>
       </c>
       <c r="Q345" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="346" spans="1:17">
@@ -20996,7 +20987,7 @@
         <v>1240</v>
       </c>
       <c r="Q346" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="347" spans="1:17">
@@ -21043,7 +21034,7 @@
         <v>1240</v>
       </c>
       <c r="Q347" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="348" spans="1:17">
@@ -21090,7 +21081,7 @@
         <v>1255</v>
       </c>
       <c r="Q348" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="349" spans="1:17">
@@ -21137,7 +21128,7 @@
         <v>1255</v>
       </c>
       <c r="Q349" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="350" spans="1:17">
@@ -21169,7 +21160,7 @@
         <v>1255</v>
       </c>
       <c r="Q350" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="351" spans="1:17">
@@ -21201,7 +21192,7 @@
         <v>1255</v>
       </c>
       <c r="Q351" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="352" spans="1:17">
@@ -21248,7 +21239,7 @@
         <v>1255</v>
       </c>
       <c r="Q352" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="353" spans="1:17">
@@ -21295,7 +21286,7 @@
         <v>1255</v>
       </c>
       <c r="Q353" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="354" spans="1:17">
@@ -21342,7 +21333,7 @@
         <v>1240</v>
       </c>
       <c r="Q354" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="355" spans="1:17">
@@ -21389,7 +21380,7 @@
         <v>1240</v>
       </c>
       <c r="Q355" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="356" spans="1:17">
@@ -21436,7 +21427,7 @@
         <v>1255</v>
       </c>
       <c r="Q356" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="357" spans="1:17">
@@ -21483,7 +21474,7 @@
         <v>1255</v>
       </c>
       <c r="Q357" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="358" spans="1:17">
@@ -21530,7 +21521,7 @@
         <v>1255</v>
       </c>
       <c r="Q358" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="359" spans="1:17">
@@ -21577,7 +21568,7 @@
         <v>1255</v>
       </c>
       <c r="Q359" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="360" spans="1:17">
@@ -21624,7 +21615,7 @@
         <v>1236</v>
       </c>
       <c r="Q360" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="361" spans="1:17">
@@ -21671,7 +21662,7 @@
         <v>1236</v>
       </c>
       <c r="Q361" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="362" spans="1:17">
@@ -21706,7 +21697,7 @@
         <v>1252</v>
       </c>
       <c r="Q362" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="363" spans="1:17">
@@ -21741,7 +21732,7 @@
         <v>1252</v>
       </c>
       <c r="Q363" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="364" spans="1:17">
@@ -21773,7 +21764,7 @@
         <v>1254</v>
       </c>
       <c r="Q364" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="365" spans="1:17">
@@ -21805,7 +21796,7 @@
         <v>1254</v>
       </c>
       <c r="Q365" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="366" spans="1:17">
@@ -21837,7 +21828,7 @@
         <v>1254</v>
       </c>
       <c r="Q366" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="367" spans="1:17">
@@ -21869,7 +21860,7 @@
         <v>1254</v>
       </c>
       <c r="Q367" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="368" spans="1:17">
@@ -21919,7 +21910,7 @@
         <v>1252</v>
       </c>
       <c r="Q368" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="369" spans="1:17">
@@ -21969,7 +21960,7 @@
         <v>1252</v>
       </c>
       <c r="Q369" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="370" spans="1:17">
@@ -22016,7 +22007,7 @@
         <v>1252</v>
       </c>
       <c r="Q370" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="371" spans="1:17">
@@ -22063,7 +22054,7 @@
         <v>1252</v>
       </c>
       <c r="Q371" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="372" spans="1:17">
@@ -22110,7 +22101,7 @@
         <v>1236</v>
       </c>
       <c r="Q372" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="373" spans="1:17">
@@ -22157,7 +22148,7 @@
         <v>1236</v>
       </c>
       <c r="Q373" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="374" spans="1:17">
@@ -22207,7 +22198,7 @@
         <v>1236</v>
       </c>
       <c r="Q374" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="375" spans="1:17">
@@ -22257,7 +22248,7 @@
         <v>1236</v>
       </c>
       <c r="Q375" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="376" spans="1:17">
@@ -22304,7 +22295,7 @@
         <v>1236</v>
       </c>
       <c r="Q376" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="377" spans="1:17">
@@ -22351,7 +22342,7 @@
         <v>1236</v>
       </c>
       <c r="Q377" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="378" spans="1:17">
@@ -22380,7 +22371,7 @@
         <v>1256</v>
       </c>
       <c r="Q378" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="379" spans="1:17">
@@ -22409,7 +22400,7 @@
         <v>1256</v>
       </c>
       <c r="Q379" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="380" spans="1:17">
@@ -22456,7 +22447,7 @@
         <v>1256</v>
       </c>
       <c r="Q380" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="381" spans="1:17">
@@ -22503,7 +22494,7 @@
         <v>1256</v>
       </c>
       <c r="Q381" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="382" spans="1:17">
@@ -22550,7 +22541,7 @@
         <v>1256</v>
       </c>
       <c r="Q382" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="383" spans="1:17">
@@ -22597,7 +22588,7 @@
         <v>1256</v>
       </c>
       <c r="Q383" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="384" spans="1:17">
@@ -22644,7 +22635,7 @@
         <v>1256</v>
       </c>
       <c r="Q384" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="385" spans="1:17">
@@ -22691,7 +22682,7 @@
         <v>1256</v>
       </c>
       <c r="Q385" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="386" spans="1:17">
@@ -22729,7 +22720,7 @@
         <v>1236</v>
       </c>
       <c r="Q386" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="387" spans="1:17">
@@ -22767,7 +22758,7 @@
         <v>1236</v>
       </c>
       <c r="Q387" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="388" spans="1:17">
@@ -22814,7 +22805,7 @@
         <v>1236</v>
       </c>
       <c r="Q388" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="389" spans="1:17">
@@ -22861,7 +22852,7 @@
         <v>1236</v>
       </c>
       <c r="Q389" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="390" spans="1:17">
@@ -22908,7 +22899,7 @@
         <v>1255</v>
       </c>
       <c r="Q390" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="391" spans="1:17">
@@ -22955,7 +22946,7 @@
         <v>1255</v>
       </c>
       <c r="Q391" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="392" spans="1:17">
@@ -23002,7 +22993,7 @@
         <v>1252</v>
       </c>
       <c r="Q392" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="393" spans="1:17">
@@ -23049,7 +23040,7 @@
         <v>1252</v>
       </c>
       <c r="Q393" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="394" spans="1:17">
@@ -23084,7 +23075,7 @@
         <v>1255</v>
       </c>
       <c r="Q394" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="395" spans="1:17">
@@ -23119,7 +23110,7 @@
         <v>1255</v>
       </c>
       <c r="Q395" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="396" spans="1:17">
@@ -23154,7 +23145,7 @@
         <v>1252</v>
       </c>
       <c r="Q396" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="397" spans="1:17">
@@ -23189,7 +23180,7 @@
         <v>1252</v>
       </c>
       <c r="Q397" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="398" spans="1:17">
@@ -23236,7 +23227,7 @@
         <v>1255</v>
       </c>
       <c r="Q398" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="399" spans="1:17">
@@ -23283,7 +23274,7 @@
         <v>1255</v>
       </c>
       <c r="Q399" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="400" spans="1:17">
@@ -23330,7 +23321,7 @@
         <v>1242</v>
       </c>
       <c r="Q400" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="401" spans="1:17">
@@ -23377,7 +23368,7 @@
         <v>1242</v>
       </c>
       <c r="Q401" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="402" spans="1:17">
@@ -23427,7 +23418,7 @@
         <v>1255</v>
       </c>
       <c r="Q402" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="403" spans="1:17">
@@ -23477,7 +23468,7 @@
         <v>1255</v>
       </c>
       <c r="Q403" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="404" spans="1:17">
@@ -23524,7 +23515,7 @@
         <v>1255</v>
       </c>
       <c r="Q404" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="405" spans="1:17">
@@ -23571,7 +23562,7 @@
         <v>1255</v>
       </c>
       <c r="Q405" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="406" spans="1:17">
@@ -23618,7 +23609,7 @@
         <v>1255</v>
       </c>
       <c r="Q406" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="407" spans="1:17">
@@ -23665,7 +23656,7 @@
         <v>1255</v>
       </c>
       <c r="Q407" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="408" spans="1:17">
@@ -23712,7 +23703,7 @@
         <v>1255</v>
       </c>
       <c r="Q408" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="409" spans="1:17">
@@ -23759,7 +23750,7 @@
         <v>1255</v>
       </c>
       <c r="Q409" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="410" spans="1:17">
@@ -23806,7 +23797,7 @@
         <v>1255</v>
       </c>
       <c r="Q410" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="411" spans="1:17">
@@ -23853,7 +23844,7 @@
         <v>1255</v>
       </c>
       <c r="Q411" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="412" spans="1:17">
@@ -23900,7 +23891,7 @@
         <v>1255</v>
       </c>
       <c r="Q412" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="413" spans="1:17">
@@ -23947,7 +23938,7 @@
         <v>1255</v>
       </c>
       <c r="Q413" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="414" spans="1:17">
@@ -23994,7 +23985,7 @@
         <v>1255</v>
       </c>
       <c r="Q414" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="415" spans="1:17">
@@ -24041,7 +24032,7 @@
         <v>1255</v>
       </c>
       <c r="Q415" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="416" spans="1:17">
@@ -24076,7 +24067,7 @@
         <v>1242</v>
       </c>
       <c r="Q416" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="417" spans="1:17">
@@ -24111,7 +24102,7 @@
         <v>1242</v>
       </c>
       <c r="Q417" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="418" spans="1:17">
@@ -24146,7 +24137,7 @@
         <v>1254</v>
       </c>
       <c r="Q418" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="419" spans="1:17">
@@ -24181,7 +24172,7 @@
         <v>1254</v>
       </c>
       <c r="Q419" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="420" spans="1:17">
@@ -24228,7 +24219,7 @@
         <v>1254</v>
       </c>
       <c r="Q420" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="421" spans="1:17">
@@ -24275,7 +24266,7 @@
         <v>1254</v>
       </c>
       <c r="Q421" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="422" spans="1:17">
@@ -24322,7 +24313,7 @@
         <v>1254</v>
       </c>
       <c r="Q422" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="423" spans="1:17">
@@ -24369,7 +24360,7 @@
         <v>1254</v>
       </c>
       <c r="Q423" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="424" spans="1:17">
@@ -24416,7 +24407,7 @@
         <v>1257</v>
       </c>
       <c r="Q424" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="425" spans="1:17">
@@ -24463,7 +24454,7 @@
         <v>1257</v>
       </c>
       <c r="Q425" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="426" spans="1:17">
@@ -24510,7 +24501,7 @@
         <v>1257</v>
       </c>
       <c r="Q426" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="427" spans="1:17">
@@ -24557,7 +24548,7 @@
         <v>1257</v>
       </c>
       <c r="Q427" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="428" spans="1:17">
@@ -24604,7 +24595,7 @@
         <v>1247</v>
       </c>
       <c r="Q428" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="429" spans="1:17">
@@ -24651,7 +24642,7 @@
         <v>1247</v>
       </c>
       <c r="Q429" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="430" spans="1:17">
@@ -24698,7 +24689,7 @@
         <v>1247</v>
       </c>
       <c r="Q430" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="431" spans="1:17">
@@ -24748,7 +24739,7 @@
         <v>1247</v>
       </c>
       <c r="Q431" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="432" spans="1:17">
@@ -24795,7 +24786,7 @@
         <v>1243</v>
       </c>
       <c r="Q432" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="433" spans="1:17">
@@ -24842,7 +24833,7 @@
         <v>1243</v>
       </c>
       <c r="Q433" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="434" spans="1:17">
@@ -24889,7 +24880,7 @@
         <v>1245</v>
       </c>
       <c r="Q434" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="435" spans="1:17">
@@ -24936,7 +24927,7 @@
         <v>1255</v>
       </c>
       <c r="Q435" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="436" spans="1:17">
@@ -24983,7 +24974,7 @@
         <v>1255</v>
       </c>
       <c r="Q436" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="437" spans="1:17">
@@ -25030,7 +25021,7 @@
         <v>1242</v>
       </c>
       <c r="Q437" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="438" spans="1:17">
@@ -25077,7 +25068,7 @@
         <v>1242</v>
       </c>
       <c r="Q438" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="439" spans="1:17">
@@ -25112,7 +25103,7 @@
         <v>1242</v>
       </c>
       <c r="Q439" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="440" spans="1:17">
@@ -25159,7 +25150,7 @@
         <v>1242</v>
       </c>
       <c r="Q440" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="441" spans="1:17">
@@ -25206,7 +25197,7 @@
         <v>1242</v>
       </c>
       <c r="Q441" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="442" spans="1:17">
@@ -25253,7 +25244,7 @@
         <v>1237</v>
       </c>
       <c r="Q442" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="443" spans="1:17">
@@ -25300,7 +25291,7 @@
         <v>1237</v>
       </c>
       <c r="Q443" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="444" spans="1:17">
@@ -25347,7 +25338,7 @@
         <v>1237</v>
       </c>
       <c r="Q444" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="445" spans="1:17">
@@ -25394,7 +25385,7 @@
         <v>1237</v>
       </c>
       <c r="Q445" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="446" spans="1:17">
@@ -25441,7 +25432,7 @@
         <v>1237</v>
       </c>
       <c r="Q446" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="447" spans="1:17">
@@ -25488,7 +25479,7 @@
         <v>1237</v>
       </c>
       <c r="Q447" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="448" spans="1:17">
@@ -25535,7 +25526,7 @@
         <v>1237</v>
       </c>
       <c r="Q448" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="449" spans="1:17">
@@ -25582,7 +25573,7 @@
         <v>1252</v>
       </c>
       <c r="Q449" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="450" spans="1:17">
@@ -25629,7 +25620,7 @@
         <v>1258</v>
       </c>
       <c r="Q450" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="451" spans="1:17">
@@ -25676,7 +25667,7 @@
         <v>1258</v>
       </c>
       <c r="Q451" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="452" spans="1:17">
@@ -25723,7 +25714,7 @@
         <v>1258</v>
       </c>
       <c r="Q452" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="453" spans="1:17">
@@ -25770,7 +25761,7 @@
         <v>1258</v>
       </c>
       <c r="Q453" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="454" spans="1:17">
@@ -25817,7 +25808,7 @@
         <v>1243</v>
       </c>
       <c r="Q454" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="455" spans="1:17">
@@ -25864,7 +25855,7 @@
         <v>1243</v>
       </c>
       <c r="Q455" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="456" spans="1:17">
@@ -25911,7 +25902,7 @@
         <v>1243</v>
       </c>
       <c r="Q456" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="457" spans="1:17">
@@ -25958,7 +25949,7 @@
         <v>1252</v>
       </c>
       <c r="Q457" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="458" spans="1:17">
@@ -26005,7 +25996,7 @@
         <v>1259</v>
       </c>
       <c r="Q458" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="459" spans="1:17">
@@ -26052,7 +26043,7 @@
         <v>1236</v>
       </c>
       <c r="Q459" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="460" spans="1:17">
@@ -26099,7 +26090,7 @@
         <v>1239</v>
       </c>
       <c r="Q460" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="461" spans="1:17">
@@ -26146,7 +26137,7 @@
         <v>1243</v>
       </c>
       <c r="Q461" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="462" spans="1:17">
@@ -26181,7 +26172,7 @@
         <v>1252</v>
       </c>
       <c r="Q462" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="463" spans="1:17">
@@ -26228,7 +26219,7 @@
         <v>1245</v>
       </c>
       <c r="Q463" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/updates.xlsx
+++ b/assets/data/updates.xlsx
@@ -622,16 +622,13 @@
     <t>4,000 doctors and 15,000 nurses and paramedics will be made permanent.</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Not Started</t>
+    <t>Partially Fulfilled</t>
+  </si>
+  <si>
+    <t>Fulfilled</t>
+  </si>
+  <si>
+    <t>Unfulfilled</t>
   </si>
   <si>
     <t>BRPL aims to bring the benefit of Rooftop Solar Power to Delhi. In its First Phase, the flagship Initiative BRPL Solar City is targeting Group Housing Societies in Dwarka Sub-city. Join us in our mission to Solarise Dwarka!
@@ -1311,6 +1308,9 @@
   </si>
   <si>
     <t>While the bank loans facilitation is still underway, the Delhi Government revised the auto fares for financial empowerment of drivers. The Delhi Government notified revised auto-rickshaw fares with an 18.75 per cent hike on existing rates. Under the revised rates, riders will have to pay a base fare of Rs 25 for 1.5 km against the existing rate of Rs 25 for initial 2 km of the ride. Rs 9.5 will be charged for every additional kilometre after the initial 1.5 km against the existing rate of Rs 8 km per kilometre.</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t xml:space="preserve">The state government decided to curtail special powers of traffic police conferred on it several years ago. Under rule of 66/192 A, Delhi traffic police had power to seize vehicles in case of overcharging, refusal, driving without PSV (public service vehicle) badges, uniform, misbehaviour by drivers. </t>
@@ -3787,7 +3787,7 @@
         <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>439</v>
@@ -3825,7 +3825,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>440</v>
@@ -3857,10 +3857,10 @@
         <v>43108</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>441</v>
@@ -3895,7 +3895,7 @@
         <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
         <v>442</v>
@@ -3930,7 +3930,7 @@
         <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
         <v>443</v>
@@ -3968,7 +3968,7 @@
         <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
         <v>444</v>
@@ -4006,10 +4006,10 @@
         <v>42578</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>445</v>
@@ -4041,10 +4041,10 @@
         <v>43341</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>446</v>
@@ -4076,10 +4076,10 @@
         <v>42965</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
         <v>447</v>
@@ -4111,10 +4111,10 @@
         <v>43839</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
         <v>448</v>
@@ -4152,10 +4152,10 @@
         <v>43929</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
         <v>449</v>
@@ -4193,10 +4193,10 @@
         <v>43839</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
         <v>450</v>
@@ -4234,7 +4234,7 @@
         <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
         <v>451</v>
@@ -4275,7 +4275,7 @@
         <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
         <v>452</v>
@@ -4310,10 +4310,10 @@
         <v>43098</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
         <v>453</v>
@@ -4348,10 +4348,10 @@
         <v>43833</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
         <v>454</v>
@@ -4386,7 +4386,7 @@
         <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
         <v>455</v>
@@ -4424,10 +4424,10 @@
         <v>43867</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
         <v>456</v>
@@ -4459,10 +4459,10 @@
         <v>43868</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
         <v>457</v>
@@ -4494,10 +4494,10 @@
         <v>43682</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
         <v>458</v>
@@ -4535,10 +4535,10 @@
         <v>43013</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
         <v>459</v>
@@ -4576,7 +4576,7 @@
         <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" t="s">
         <v>460</v>
@@ -4614,10 +4614,10 @@
         <v>44024</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F24" t="s">
         <v>461</v>
@@ -4658,7 +4658,7 @@
         <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
         <v>462</v>
@@ -4696,10 +4696,10 @@
         <v>43777</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
         <v>463</v>
@@ -4737,10 +4737,10 @@
         <v>43373</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
         <v>464</v>
@@ -4775,10 +4775,10 @@
         <v>43865</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s">
         <v>465</v>
@@ -4810,10 +4810,10 @@
         <v>43520</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F29" t="s">
         <v>466</v>
@@ -4851,10 +4851,10 @@
         <v>43520</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
         <v>467</v>
@@ -4889,10 +4889,10 @@
         <v>43975</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F31" t="s">
         <v>468</v>
@@ -4927,10 +4927,10 @@
         <v>44077</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F32" t="s">
         <v>469</v>
@@ -4968,7 +4968,7 @@
         <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
         <v>470</v>
@@ -5003,10 +5003,10 @@
         <v>43244</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
         <v>471</v>
@@ -5038,10 +5038,10 @@
         <v>42458</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
         <v>472</v>
@@ -5079,10 +5079,10 @@
         <v>43522</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
         <v>473</v>
@@ -5114,10 +5114,10 @@
         <v>43522</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
         <v>474</v>
@@ -5149,10 +5149,10 @@
         <v>42802</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
         <v>475</v>
@@ -5190,10 +5190,10 @@
         <v>43182</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
         <v>476</v>
@@ -5231,10 +5231,10 @@
         <v>43522</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
         <v>477</v>
@@ -5275,7 +5275,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
         <v>478</v>
@@ -5310,7 +5310,7 @@
         <v>202</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
         <v>479</v>
@@ -5345,7 +5345,7 @@
         <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
         <v>480</v>
@@ -5377,10 +5377,10 @@
         <v>42401</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F44" t="s">
         <v>481</v>
@@ -5412,10 +5412,10 @@
         <v>43013</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F45" t="s">
         <v>459</v>
@@ -5450,10 +5450,10 @@
         <v>43013</v>
       </c>
       <c r="D46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
         <v>482</v>
@@ -5485,10 +5485,10 @@
         <v>43013</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
         <v>483</v>
@@ -5520,10 +5520,10 @@
         <v>43013</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F48" t="s">
         <v>484</v>
@@ -5555,10 +5555,10 @@
         <v>42210</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
         <v>485</v>
@@ -5590,10 +5590,10 @@
         <v>42533</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s">
         <v>486</v>
@@ -5625,10 +5625,10 @@
         <v>43700</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F51" t="s">
         <v>487</v>
@@ -5660,10 +5660,10 @@
         <v>42326</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F52" t="s">
         <v>488</v>
@@ -5695,10 +5695,10 @@
         <v>42927</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
         <v>489</v>
@@ -5730,10 +5730,10 @@
         <v>42927</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F54" t="s">
         <v>490</v>
@@ -5765,10 +5765,10 @@
         <v>43382</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
         <v>491</v>
@@ -5800,10 +5800,10 @@
         <v>43864</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
         <v>492</v>
@@ -5838,7 +5838,7 @@
         <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F57" t="s">
         <v>493</v>
@@ -5873,7 +5873,7 @@
         <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F58" t="s">
         <v>494</v>
@@ -5908,7 +5908,7 @@
         <v>202</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
         <v>495</v>
@@ -5940,10 +5940,10 @@
         <v>43772</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
         <v>496</v>
@@ -5978,7 +5978,7 @@
         <v>202</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
         <v>497</v>
@@ -6013,7 +6013,7 @@
         <v>202</v>
       </c>
       <c r="E62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F62" t="s">
         <v>498</v>
@@ -6048,7 +6048,7 @@
         <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F63" t="s">
         <v>499</v>
@@ -6083,7 +6083,7 @@
         <v>202</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F64" t="s">
         <v>500</v>
@@ -6115,10 +6115,10 @@
         <v>43867</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F65" t="s">
         <v>501</v>
@@ -6153,7 +6153,7 @@
         <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
         <v>502</v>
@@ -6191,7 +6191,7 @@
         <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F67" t="s">
         <v>502</v>
@@ -6223,10 +6223,10 @@
         <v>43867</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F68" t="s">
         <v>503</v>
@@ -6258,10 +6258,10 @@
         <v>43867</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F69" t="s">
         <v>504</v>
@@ -6296,7 +6296,7 @@
         <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F70" t="s">
         <v>505</v>
@@ -6328,10 +6328,10 @@
         <v>43733</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F71" t="s">
         <v>506</v>
@@ -6366,7 +6366,7 @@
         <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F72" t="s">
         <v>507</v>
@@ -6401,7 +6401,7 @@
         <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F73" t="s">
         <v>508</v>
@@ -6433,10 +6433,10 @@
         <v>43868</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F74" t="s">
         <v>509</v>
@@ -6468,10 +6468,10 @@
         <v>43867</v>
       </c>
       <c r="D75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F75" t="s">
         <v>510</v>
@@ -6503,7 +6503,7 @@
         <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F76" t="s">
         <v>511</v>
@@ -6538,7 +6538,7 @@
         <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F77" t="s">
         <v>512</v>
@@ -6570,10 +6570,10 @@
         <v>43868</v>
       </c>
       <c r="D78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F78" t="s">
         <v>513</v>
@@ -6608,7 +6608,7 @@
         <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F79" t="s">
         <v>514</v>
@@ -6643,7 +6643,7 @@
         <v>202</v>
       </c>
       <c r="E80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F80" t="s">
         <v>515</v>
@@ -6678,7 +6678,7 @@
         <v>202</v>
       </c>
       <c r="E81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F81" t="s">
         <v>516</v>
@@ -6710,10 +6710,10 @@
         <v>43253</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F82" t="s">
         <v>517</v>
@@ -6748,7 +6748,7 @@
         <v>202</v>
       </c>
       <c r="E83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F83" t="s">
         <v>518</v>
@@ -6783,10 +6783,10 @@
         <v>43253</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F84" t="s">
         <v>519</v>
@@ -6818,10 +6818,10 @@
         <v>43731</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F85" t="s">
         <v>520</v>
@@ -6856,7 +6856,7 @@
         <v>202</v>
       </c>
       <c r="E86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F86" t="s">
         <v>521</v>
@@ -6888,10 +6888,10 @@
         <v>43731</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F87" t="s">
         <v>522</v>
@@ -6923,10 +6923,10 @@
         <v>43643</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F88" t="s">
         <v>523</v>
@@ -6958,10 +6958,10 @@
         <v>43766</v>
       </c>
       <c r="D89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F89" t="s">
         <v>524</v>
@@ -6993,10 +6993,10 @@
         <v>43549</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F90" t="s">
         <v>525</v>
@@ -7031,7 +7031,7 @@
         <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
         <v>526</v>
@@ -7066,10 +7066,10 @@
         <v>42139</v>
       </c>
       <c r="D92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E92" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F92" t="s">
         <v>527</v>
@@ -7104,7 +7104,7 @@
         <v>202</v>
       </c>
       <c r="E93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F93" t="s">
         <v>528</v>
@@ -7142,7 +7142,7 @@
         <v>202</v>
       </c>
       <c r="E94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F94" t="s">
         <v>529</v>
@@ -7180,7 +7180,7 @@
         <v>202</v>
       </c>
       <c r="E95" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F95" t="s">
         <v>530</v>
@@ -7215,7 +7215,7 @@
         <v>202</v>
       </c>
       <c r="E96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F96" t="s">
         <v>531</v>
@@ -7247,10 +7247,10 @@
         <v>43813</v>
       </c>
       <c r="D97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F97" t="s">
         <v>532</v>
@@ -7282,10 +7282,10 @@
         <v>43353</v>
       </c>
       <c r="D98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F98" t="s">
         <v>533</v>
@@ -7317,10 +7317,10 @@
         <v>43648</v>
       </c>
       <c r="D99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F99" t="s">
         <v>534</v>
@@ -7352,10 +7352,10 @@
         <v>43649</v>
       </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F100" t="s">
         <v>535</v>
@@ -7390,7 +7390,7 @@
         <v>202</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F101" t="s">
         <v>536</v>
@@ -7422,10 +7422,10 @@
         <v>42940</v>
       </c>
       <c r="D102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F102" t="s">
         <v>537</v>
@@ -7460,7 +7460,7 @@
         <v>202</v>
       </c>
       <c r="E103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F103" t="s">
         <v>538</v>
@@ -7495,7 +7495,7 @@
         <v>202</v>
       </c>
       <c r="E104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F104" t="s">
         <v>539</v>
@@ -7530,7 +7530,7 @@
         <v>202</v>
       </c>
       <c r="E105" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F105" t="s">
         <v>540</v>
@@ -7565,10 +7565,10 @@
         <v>43796</v>
       </c>
       <c r="D106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F106" t="s">
         <v>541</v>
@@ -7603,10 +7603,10 @@
         <v>43781</v>
       </c>
       <c r="D107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F107" t="s">
         <v>542</v>
@@ -7641,7 +7641,7 @@
         <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F108" t="s">
         <v>543</v>
@@ -7673,10 +7673,10 @@
         <v>43125</v>
       </c>
       <c r="D109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E109" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F109" t="s">
         <v>544</v>
@@ -7711,10 +7711,10 @@
         <v>42459</v>
       </c>
       <c r="D110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E110" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F110" t="s">
         <v>545</v>
@@ -7746,10 +7746,10 @@
         <v>43830</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F111" t="s">
         <v>546</v>
@@ -7787,7 +7787,7 @@
         <v>202</v>
       </c>
       <c r="E112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F112" t="s">
         <v>547</v>
@@ -7822,7 +7822,7 @@
         <v>202</v>
       </c>
       <c r="E113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F113" t="s">
         <v>548</v>
@@ -7857,7 +7857,7 @@
         <v>202</v>
       </c>
       <c r="E114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F114" t="s">
         <v>549</v>
@@ -7889,10 +7889,10 @@
         <v>43682</v>
       </c>
       <c r="D115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E115" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F115" t="s">
         <v>550</v>
@@ -7924,10 +7924,10 @@
         <v>43615</v>
       </c>
       <c r="D116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F116" t="s">
         <v>551</v>
@@ -7962,7 +7962,7 @@
         <v>202</v>
       </c>
       <c r="E117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F117" t="s">
         <v>552</v>
@@ -7997,7 +7997,7 @@
         <v>202</v>
       </c>
       <c r="E118" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F118" t="s">
         <v>553</v>
@@ -8032,7 +8032,7 @@
         <v>202</v>
       </c>
       <c r="E119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F119" t="s">
         <v>554</v>
@@ -8064,10 +8064,10 @@
         <v>43744</v>
       </c>
       <c r="D120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E120" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F120" t="s">
         <v>555</v>
@@ -8099,10 +8099,10 @@
         <v>43117</v>
       </c>
       <c r="D121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F121" t="s">
         <v>556</v>
@@ -8137,7 +8137,7 @@
         <v>202</v>
       </c>
       <c r="E122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F122" t="s">
         <v>557</v>
@@ -8172,7 +8172,7 @@
         <v>202</v>
       </c>
       <c r="E123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F123" t="s">
         <v>558</v>
@@ -8207,10 +8207,10 @@
         <v>43868</v>
       </c>
       <c r="D124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E124" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F124" t="s">
         <v>559</v>
@@ -8245,7 +8245,7 @@
         <v>202</v>
       </c>
       <c r="E125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F125" t="s">
         <v>560</v>
@@ -8280,7 +8280,7 @@
         <v>202</v>
       </c>
       <c r="E126" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F126" t="s">
         <v>561</v>
@@ -8312,10 +8312,10 @@
         <v>43773</v>
       </c>
       <c r="D127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F127" t="s">
         <v>562</v>
@@ -8347,10 +8347,10 @@
         <v>42412</v>
       </c>
       <c r="D128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F128" t="s">
         <v>563</v>
@@ -8382,10 +8382,10 @@
         <v>43769</v>
       </c>
       <c r="D129" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E129" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F129" t="s">
         <v>564</v>
@@ -8417,10 +8417,10 @@
         <v>43580</v>
       </c>
       <c r="D130" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E130" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F130" t="s">
         <v>565</v>
@@ -8455,7 +8455,7 @@
         <v>202</v>
       </c>
       <c r="E131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F131" t="s">
         <v>566</v>
@@ -8493,7 +8493,7 @@
         <v>202</v>
       </c>
       <c r="E132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F132" t="s">
         <v>567</v>
@@ -8528,7 +8528,7 @@
         <v>202</v>
       </c>
       <c r="E133" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F133" t="s">
         <v>568</v>
@@ -8563,10 +8563,10 @@
         <v>43868</v>
       </c>
       <c r="D134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F134" t="s">
         <v>569</v>
@@ -8598,10 +8598,10 @@
         <v>43057</v>
       </c>
       <c r="D135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E135" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F135" t="s">
         <v>570</v>
@@ -8636,7 +8636,7 @@
         <v>202</v>
       </c>
       <c r="E136" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F136" t="s">
         <v>571</v>
@@ -8668,10 +8668,10 @@
         <v>43868</v>
       </c>
       <c r="D137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E137" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F137" t="s">
         <v>572</v>
@@ -8706,7 +8706,7 @@
         <v>202</v>
       </c>
       <c r="E138" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F138" t="s">
         <v>573</v>
@@ -8741,7 +8741,7 @@
         <v>202</v>
       </c>
       <c r="E139" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F139" t="s">
         <v>574</v>
@@ -8776,7 +8776,7 @@
         <v>202</v>
       </c>
       <c r="E140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F140" t="s">
         <v>575</v>
@@ -8808,10 +8808,10 @@
         <v>43868</v>
       </c>
       <c r="D141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E141" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F141" t="s">
         <v>576</v>
@@ -8843,10 +8843,10 @@
         <v>43868</v>
       </c>
       <c r="D142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E142" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F142" t="s">
         <v>577</v>
@@ -8881,7 +8881,7 @@
         <v>202</v>
       </c>
       <c r="E143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F143" t="s">
         <v>578</v>
@@ -8913,10 +8913,10 @@
         <v>43868</v>
       </c>
       <c r="D144" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E144" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F144" t="s">
         <v>579</v>
@@ -8951,7 +8951,7 @@
         <v>202</v>
       </c>
       <c r="E145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F145" t="s">
         <v>580</v>
@@ -8983,10 +8983,10 @@
         <v>43868</v>
       </c>
       <c r="D146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E146" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F146" t="s">
         <v>581</v>
@@ -9018,10 +9018,10 @@
         <v>42052</v>
       </c>
       <c r="D147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E147" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F147" t="s">
         <v>582</v>
@@ -9053,10 +9053,10 @@
         <v>43360</v>
       </c>
       <c r="D148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E148" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F148" t="s">
         <v>583</v>
@@ -9088,10 +9088,10 @@
         <v>43828</v>
       </c>
       <c r="D149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F149" t="s">
         <v>584</v>
@@ -9123,10 +9123,10 @@
         <v>43112</v>
       </c>
       <c r="D150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E150" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F150" t="s">
         <v>585</v>
@@ -9161,7 +9161,7 @@
         <v>202</v>
       </c>
       <c r="E151" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F151" t="s">
         <v>586</v>
@@ -9196,7 +9196,7 @@
         <v>202</v>
       </c>
       <c r="E152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F152" t="s">
         <v>587</v>
@@ -9231,7 +9231,7 @@
         <v>202</v>
       </c>
       <c r="E153" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F153" t="s">
         <v>588</v>
@@ -9266,7 +9266,7 @@
         <v>202</v>
       </c>
       <c r="E154" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F154" t="s">
         <v>589</v>
@@ -9298,10 +9298,10 @@
         <v>43649</v>
       </c>
       <c r="D155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F155" t="s">
         <v>590</v>
@@ -9333,10 +9333,10 @@
         <v>43690</v>
       </c>
       <c r="D156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E156" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F156" t="s">
         <v>591</v>
@@ -9368,10 +9368,10 @@
         <v>42925</v>
       </c>
       <c r="D157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E157" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F157" t="s">
         <v>592</v>
@@ -9403,10 +9403,10 @@
         <v>41808</v>
       </c>
       <c r="D158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E158" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F158" t="s">
         <v>593</v>
@@ -9438,10 +9438,10 @@
         <v>41898</v>
       </c>
       <c r="D159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E159" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F159" t="s">
         <v>594</v>
@@ -9473,10 +9473,10 @@
         <v>43805</v>
       </c>
       <c r="D160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E160" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F160" t="s">
         <v>595</v>
@@ -9511,7 +9511,7 @@
         <v>202</v>
       </c>
       <c r="E161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F161" t="s">
         <v>596</v>
@@ -9543,13 +9543,13 @@
         <v>43874</v>
       </c>
       <c r="D162" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E162" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="F162" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="I162" t="s">
         <v>920</v>
@@ -9575,7 +9575,7 @@
         <v>42103</v>
       </c>
       <c r="D163" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E163" t="s">
         <v>365</v>
@@ -9610,13 +9610,13 @@
         <v>43874</v>
       </c>
       <c r="D164" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E164" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="F164" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="I164" t="s">
         <v>920</v>
@@ -9712,7 +9712,7 @@
         <v>43290</v>
       </c>
       <c r="D167" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E167" t="s">
         <v>368</v>
@@ -9814,7 +9814,7 @@
         <v>117</v>
       </c>
       <c r="D170" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I170" t="s">
         <v>927</v>
@@ -9840,7 +9840,7 @@
         <v>40182</v>
       </c>
       <c r="D171" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E171" t="s">
         <v>371</v>
@@ -9910,7 +9910,7 @@
         <v>42677</v>
       </c>
       <c r="D173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E173" t="s">
         <v>373</v>
@@ -9945,7 +9945,7 @@
         <v>43828</v>
       </c>
       <c r="D174" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E174" t="s">
         <v>374</v>
@@ -9980,7 +9980,7 @@
         <v>43698</v>
       </c>
       <c r="D175" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E175" t="s">
         <v>375</v>
@@ -10012,7 +10012,7 @@
         <v>123</v>
       </c>
       <c r="D176" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I176" t="s">
         <v>927</v>
@@ -10038,7 +10038,7 @@
         <v>42300</v>
       </c>
       <c r="D177" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E177" t="s">
         <v>376</v>
@@ -10073,7 +10073,7 @@
         <v>43255</v>
       </c>
       <c r="D178" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E178" t="s">
         <v>377</v>
@@ -10143,7 +10143,7 @@
         <v>42839</v>
       </c>
       <c r="D180" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E180" t="s">
         <v>379</v>
@@ -10210,7 +10210,7 @@
         <v>129</v>
       </c>
       <c r="D182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I182" t="s">
         <v>927</v>
@@ -10233,7 +10233,7 @@
         <v>130</v>
       </c>
       <c r="D183" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I183" t="s">
         <v>927</v>
@@ -10256,7 +10256,7 @@
         <v>131</v>
       </c>
       <c r="D184" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I184" t="s">
         <v>927</v>
@@ -10282,7 +10282,7 @@
         <v>42322</v>
       </c>
       <c r="D185" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E185" t="s">
         <v>381</v>
@@ -10355,7 +10355,7 @@
         <v>43742</v>
       </c>
       <c r="D187" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E187" t="s">
         <v>383</v>
@@ -10390,7 +10390,7 @@
         <v>42143</v>
       </c>
       <c r="D188" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E188" t="s">
         <v>384</v>
@@ -10428,7 +10428,7 @@
         <v>42425</v>
       </c>
       <c r="D189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E189" t="s">
         <v>385</v>
@@ -10463,7 +10463,7 @@
         <v>42545</v>
       </c>
       <c r="D190" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E190" t="s">
         <v>386</v>
@@ -10498,7 +10498,7 @@
         <v>42545</v>
       </c>
       <c r="D191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E191" t="s">
         <v>386</v>
@@ -10600,7 +10600,7 @@
         <v>141</v>
       </c>
       <c r="D194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E194" t="s">
         <v>389</v>
@@ -10699,7 +10699,7 @@
         <v>42066</v>
       </c>
       <c r="D197" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E197" t="s">
         <v>392</v>
@@ -10731,7 +10731,7 @@
         <v>145</v>
       </c>
       <c r="D198" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I198" t="s">
         <v>927</v>
@@ -10754,7 +10754,7 @@
         <v>146</v>
       </c>
       <c r="D199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I199" t="s">
         <v>927</v>
@@ -10780,7 +10780,7 @@
         <v>42780</v>
       </c>
       <c r="D200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E200" t="s">
         <v>393</v>
@@ -10850,7 +10850,7 @@
         <v>43830</v>
       </c>
       <c r="D202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E202" t="s">
         <v>395</v>
@@ -10888,7 +10888,7 @@
         <v>42780</v>
       </c>
       <c r="D203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E203" t="s">
         <v>393</v>
@@ -10923,7 +10923,7 @@
         <v>42109</v>
       </c>
       <c r="D204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E204" t="s">
         <v>396</v>
@@ -10990,7 +10990,7 @@
         <v>153</v>
       </c>
       <c r="D206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I206" t="s">
         <v>927</v>
@@ -11016,7 +11016,7 @@
         <v>42109</v>
       </c>
       <c r="D207" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E207" t="s">
         <v>396</v>
@@ -11051,7 +11051,7 @@
         <v>43717</v>
       </c>
       <c r="D208" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E208" t="s">
         <v>398</v>
@@ -11086,7 +11086,7 @@
         <v>42052</v>
       </c>
       <c r="D209" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E209" t="s">
         <v>399</v>
@@ -11153,7 +11153,7 @@
         <v>158</v>
       </c>
       <c r="D211" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I211" t="s">
         <v>927</v>
@@ -11176,7 +11176,7 @@
         <v>159</v>
       </c>
       <c r="D212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I212" t="s">
         <v>927</v>
@@ -11202,7 +11202,7 @@
         <v>42741</v>
       </c>
       <c r="D213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E213" t="s">
         <v>401</v>
@@ -11272,7 +11272,7 @@
         <v>43743</v>
       </c>
       <c r="D215" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E215" t="s">
         <v>403</v>
@@ -11377,7 +11377,7 @@
         <v>42173</v>
       </c>
       <c r="D218" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E218" t="s">
         <v>406</v>
@@ -11412,7 +11412,7 @@
         <v>42164</v>
       </c>
       <c r="D219" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E219" t="s">
         <v>407</v>
@@ -11520,7 +11520,7 @@
         <v>42533</v>
       </c>
       <c r="D222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E222" t="s">
         <v>410</v>
@@ -11555,7 +11555,7 @@
         <v>42533</v>
       </c>
       <c r="D223" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E223" t="s">
         <v>411</v>
@@ -11625,7 +11625,7 @@
         <v>42599</v>
       </c>
       <c r="D225" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E225" t="s">
         <v>413</v>
@@ -11660,7 +11660,7 @@
         <v>42537</v>
       </c>
       <c r="D226" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E226" t="s">
         <v>414</v>
@@ -11695,7 +11695,7 @@
         <v>42143</v>
       </c>
       <c r="D227" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E227" t="s">
         <v>415</v>
@@ -11730,7 +11730,7 @@
         <v>42143</v>
       </c>
       <c r="D228" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E228" t="s">
         <v>416</v>
@@ -11762,7 +11762,7 @@
         <v>176</v>
       </c>
       <c r="D229" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I229" t="s">
         <v>927</v>
@@ -11788,7 +11788,7 @@
         <v>42143</v>
       </c>
       <c r="D230" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E230" t="s">
         <v>417</v>
@@ -11823,7 +11823,7 @@
         <v>42137</v>
       </c>
       <c r="D231" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E231" t="s">
         <v>418</v>
@@ -11893,7 +11893,7 @@
         <v>42456</v>
       </c>
       <c r="D233" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E233" t="s">
         <v>420</v>
@@ -11928,7 +11928,7 @@
         <v>42338</v>
       </c>
       <c r="D234" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E234" t="s">
         <v>421</v>
@@ -11963,7 +11963,7 @@
         <v>42687</v>
       </c>
       <c r="D235" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E235" t="s">
         <v>422</v>
@@ -11998,7 +11998,7 @@
         <v>42258</v>
       </c>
       <c r="D236" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E236" t="s">
         <v>423</v>
@@ -12068,7 +12068,7 @@
         <v>42521</v>
       </c>
       <c r="D238" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E238" t="s">
         <v>424</v>
@@ -12103,7 +12103,7 @@
         <v>42521</v>
       </c>
       <c r="D239" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E239" t="s">
         <v>424</v>
@@ -12138,7 +12138,7 @@
         <v>42096</v>
       </c>
       <c r="D240" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E240" t="s">
         <v>425</v>
@@ -12173,7 +12173,7 @@
         <v>42096</v>
       </c>
       <c r="D241" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E241" t="s">
         <v>426</v>
@@ -12208,7 +12208,7 @@
         <v>43861</v>
       </c>
       <c r="D242" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E242" t="s">
         <v>427</v>
@@ -12243,7 +12243,7 @@
         <v>43726</v>
       </c>
       <c r="D243" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E243" t="s">
         <v>428</v>
@@ -12278,7 +12278,7 @@
         <v>43651</v>
       </c>
       <c r="D244" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E244" t="s">
         <v>429</v>
@@ -12348,7 +12348,7 @@
         <v>43817</v>
       </c>
       <c r="D246" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E246" t="s">
         <v>431</v>
@@ -12383,7 +12383,7 @@
         <v>43052</v>
       </c>
       <c r="D247" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E247" t="s">
         <v>432</v>
@@ -12418,7 +12418,7 @@
         <v>43531</v>
       </c>
       <c r="D248" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E248" t="s">
         <v>433</v>
@@ -12488,7 +12488,7 @@
         <v>43743</v>
       </c>
       <c r="D250" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E250" t="s">
         <v>435</v>
@@ -12555,7 +12555,7 @@
         <v>199</v>
       </c>
       <c r="D252" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I252" t="s">
         <v>927</v>
@@ -12581,7 +12581,7 @@
         <v>42200</v>
       </c>
       <c r="D253" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E253" t="s">
         <v>437</v>
